--- a/src/scripts/xslx/TBD_DB.xlsx
+++ b/src/scripts/xslx/TBD_DB.xlsx
@@ -140,7 +140,7 @@
     <t>ISSUE1</t>
   </si>
   <si>
-    <t>COME OUT</t>
+    <t>ISSUE 1</t>
   </si>
   <si>
     <t>A partire dalla fine del 2019 a Krasnogorsk, cittadina a nord-ovest di Mosca, un allevamento di bovini sta sperimentando un particolare visore per la realtà virtuale sulla sua comunità di mucche. Il visore, adattato alla conformazione fisica dei bovini, è volto all'aumento della produzione di latte, attraverso la trasmissione di immagini pensate per il benessere psicofisico degli utenti animali. Il video trasmesso, un prato verde in una giornata d'estate, è infatti studiato per immergere gli animali in un ambiente rilassante, alienandoli dalla mesta atmosfera dell'allevamento russo. Dall'ancora incerto valore scientifico, questa pratica ha attivato una serie di importanti riflessioni sul nostro rapporto con il soggetto animale e sulle pratiche d'immersività digitale. TBD, come altre realtà editoriali, ha ritenuto di particolare rilievo questo fatto come catalizzatore di indagini proiettate all'ambito della visione, dell'estetica e delle arti contemporanee.</t>
@@ -657,32 +657,152 @@
     <t>/ARTICLES/ISSUE1/HUMAN_NOT_HUMAN/ANIMAL_TURN_THUMB.webp</t>
   </si>
   <si>
+    <t xml:space="preserve">Nel dicembre del 2003 fu coniato dall’antropologa americana Sarah Franklin il termine animal turn nel convegno della Cultural Studies Association of Australasia (Armstrong e Simmons 2007). L’espressione è diventata velocemente di uso comune ed è entrata a far parte del gergo accademico per definire un rinnovato interesse verso i soggetti animali e il loro rapporto con l’umano. Questo interesse verso un nuovo paradigma critico è inevitabilmente collegato al più ampio fenomeno culturale del post umanesimo. Si può quindi affermare che l’animal turn sia una conseguenza diretta di tale crisi ontologica, alla quale si abbina un interesse per le specie non umane. La progressiva erosione dei confini fra l’uomo e l’Altro ha generato uno iato che ha dato a sua volta la possibilità a soggetti non umani (animali, vegetali, processi ambientali e cosmici) di entrare a pieno titolo e dignità in uno schema filosofico più ampio (Braidotti 2014), definendo dunque una svolta paradigmatica. Se le analisi post-strutturaliste e postmoderne della fine del XX secolo, attraverso il confronto con l’Altro, hanno già attivato una serie di fertili discorsi relativi a razza, genere e nazionalità, l’approccio postumanista ne estende i confini al di fuori dell’umano. Del resto, gli animal studies hanno influenzato e trasformato i pensieri postumanisti arricchendoli di questioni relative al soggetto a e alla sua costruzione culturale, riorientando così la questione degli affect (Gregg e Seigworth 2010) e del corpo, che si caricano di un maggiore impulso etico e politico (Nayar 2014). A Donna Haraway si deve l’integrazione, già avviata in Primate Visions , degli animal studies alla teoria postumanista. Tuttavia, è in Manifesto Cyborg che la questione diventa un asse principale della sua proposta rivoluzionaria. Qui Haraway evidenzia tre tratti caratterizzanti l’epoca postumana, relativi al rapporto tra umano e animale, tra organismo e macchina e tra fisico e non fisico[1] . Haraway ha dunque riassunto il progetto postumanista, interrogando e decostruendo i sistemi di classificazione che portano a considerare l’animale come una forma di vita inferiore. Per quanto Haraway non possa essere considerata rappresentate del postumano tout court, l’evoluzione della sua riflessione è indicativa di uno spostamento concettuale condiviso. </t>
+  </si>
+  <si>
+    <t>Redazione TBD Ultramag</t>
+  </si>
+  <si>
     <t>In December 2003, American anthropologist Sarah Franklin invented the term animal turn in the convention of the Cultural Studies Association of Australasia (Armstrong and Simmons 2007). The expression quickly entered current usage and academic vocabulary to define a renewed interest in animal entities, in their dichotomy and relationship with humans. This interest related to a new critical paradigm is directly connected with the wider cultural phenomenon of the crisis of traditional humanism, named posthumanism It may be said that the animal turn is a direct consequence of this ontological crisis to which an interest in non-human species is connected. The progressive blurring of borders between mankind and the Other generated a hiatus that gave possibility to non-human entities – animals, vegetables, environmental and cosmic processes – to enter the debate with full dignity (Braidotti 2014). We are thus witnessing an effective paradigmatic turn. Animal entities, often repressed and demonised, have always represented the Other for humans. Late 20th century post-structuralist and postmodernist analysis may have seen in the analysis of the Other the possibility of initiating a series of fertile discourses concerning race, gender and nationality, but it is the contemporary approach that fully embraces this issue. After all, animal studies have influenced and transformed post-humanist thought, enriching it with issues concerning human limits and cultural construction, reorienting in turn the issue of the ‘affects’ (Gregg and Seigworth, 2010) and of the body, giving them higher ethical and political momentum (Nayar, 2014: 79).</t>
   </si>
   <si>
-    <t>Redazione TBD Ultramag</t>
-  </si>
-  <si>
-    <t>/ARTICLES/ISSUE1/HUMAN_NOT_HUMAN/ANIMAL_TURN_ISSUE/IMAGES/IMG_1.webp</t>
-  </si>
-  <si>
-    <t>That Kari Weil (2010: 12), who has conducted important research on the topic of the relationship between humans and animals, states that the animal turn contributed to a ‘counter-linguistic shift’ against the structuralist dimension typical of the early 20th century. This shift encouraged an attempt at going beyond the confining, exclusive focus on language and at opening up to different approaches to reality, alterity and humanity itself (Weil, 2010: 4). Language, indeed, has always been a distinctive human sign and the alleged lack of it marked the inferiority and exclusion of the Other and of the non-human. Therefore, post-humanist decentralisation also involves a decentralisation of language and of its exclusivity. Weil (2010: 13) also suggests that counter-linguistic commitment is in itself an ethical act as it pays attention to the ineffable, which turns to the body and its ‘affects’. This entails a heavy ethical charge that leads animal studies towards new ways to answer  and new forms of responsibility. Doubtlessly  each of the different currents of the post-humanist universe entails an ethical and political project of its own; however, the animal turn has favoured the development of further emphasis on ethics, giving new meanings to concepts such as subjectivity, alterity andagency. Having reached this point, the trajectory of Haraway from cyborg to ‘companion species’ may again be considered as an indicator of a renewed interest on interspecies ethics. Human decentralisation matches a questioning of humanist ethics, of who or what matters as a subject and which duties and responsibilities there are towards others. The animal turn contributed to this domain by widening the category of subjectivity, and from the very beginning animal ethics has questioned the exclusivity of human subjectivity. Focusing on non-human animals breached humanist limits of alterity and ethical consideration. Weil states (2010: 17) that authentic post-human ethics should deal with ‘an unknowable or “incalculable” other’, hence it should relate to non-human animals; this is because, as added by Derrida (2006: 90), animals represent the absolute alterity. This rearrangement of the fundamental ethical categories needs a qualitative change of the terms and ways of the ethical debate. Ultimately, supporting the vital bond between human beings and other species is not only necessary, but also useful, despite the fact that anthropomorphising animals in order to bestow principles of moral and legal equality on them too  confirms the binary distinction between human and animal and fully denies animal specificity. Therefore, it is possible to state that post-humanist ethics have to go beyond the limits of traditional ethics and open up not only to new forms of subjectivity and alterity, but also to new ways and modes of relation and action. This shows that overcoming humanism requires full, constant attention and a continuous re-examination of terms to avoid settling for easy results.</t>
+    <t>/ARTICLES/ISSUE1/HUMAN_NOT_HUMAN/ANIMAL_TURN_ISSUE/IMAGES/GALLERY_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kari Weil, importante studiosa della questione, sostiene che l’animal turn abbia contribuito a una svolta “contro linguistica”, in opposizione alla dimensione strutturalista tipica del primo Novecento. Svolta che ha avuto il vantaggio di aprire a diversi approcci alla realtà, all’alterità e all’umanità stessa (Weil 2010).
+Di fatto il linguaggio è sempre stato il presunto segno distintivo dell’umano e la sua mancanza ha marcato l’inferiorità e l’esclusione dell’altro non umano. Il decentramento postumanista significa dunque anche un decentramento del linguaggio e della sua esclusività. Weil suggerisce anche che l’impegno contro linguistico è in sé un atto etico in quanto presta attenzione all’ineffabile del corpo e dei suoi ‘affetti’[2]. Questa rinnovata carica etica conduce gli studies verso inedite modalità di risposta e nuove forme di responsabilità. Senz’ombra di dubbio, ciascuna delle diverse correnti dell’universo postumanista prevede un suo progetto etico-politico, tuttavia l’animal turn ha favorito lo sviluppo di un’ulteriore enfasi etica, caricando di nuovi significati concetti come “soggettività”, “alterità” o “agency”. Arrivati a questo punto la traiettoria di Haraway dal cyborg alle companion species può essere di nuovo considerata come un indicatore dell’interesse per un’etica inter-specie. Il decentramento dell’umano corrisponde a una messa in questione dell’etica umanista, del chi o cosa conti come soggetto e quali siano i doveri e le responsabilità nei confronti dell’altro.  Weil sostiene che un’autentica etica post umana dovrebbe occuparsi di un “altro inconoscibile o incalcolabile”, e quindi necessariamente occuparsi degli animali non umani. Questo perché, come aggiunge Derrida, l’animale rappresenta l’alterità assoluta (Derrida 2006). Tale riconfigurazione delle categorie etiche fondamentali richiede un cambiamento anche qualitativo dei termini e delle modalità del dibattito. In definitiva, sostenere il legame vitale tra gli esseri umani e le altre specie risulta utile e necessario, tenendo conto che antropomorfizzare gli animali, in modo da estendere anche a loro il principio di uguaglianza morale e legale, conferma la distinzione binaria umano-animale e nega completamente la specificità degli animali.
+È possibile affermare dunque che un’etica postumanista debba superare i limiti dell’etica tradizionale e aprirsi non solo a nuove forme di soggettività e alterità, ma anche a nuove vie e modalità di relazione e azione. Oltrepassare e ripensare il focus sull’umano richiede dunque una grande dose di attenzione e un continuo riesame dei termini che ne definiscono l’identità, per non sfociare in una categorizzazione banale e semplicistica di un fenomeno fluido per sua stessa natura.
+</t>
+  </si>
+  <si>
+    <t>/ARTICLES/ISSUE1/HUMAN_NOT_HUMAN/ANIMAL_TURN_ISSUE/IMAGES/GALLERY_2</t>
   </si>
   <si>
     <t>/ARTICLES/ISSUE1/IMMERSIVITY/IMMERSIVE_XP/GALLERY1</t>
   </si>
   <si>
-    <t>*Le ultime spiagge di unicità o sono state inquinate o le hanno trasformate in parco giochi: il linguaggio, l’uso di strumenti, il comportamento sociale, gli eventi mentali non stabiliscono più in modo convincente la separazione tra umano e animale. E parecchi non sentono più il bisogno di questa separazione […]. Il cyborg entra nel mito proprio quando si trasgredisce il confine tra umano e animale. Lungi dal segnalare una drastica separazione delle persone dalle altre creature viventi, il cyborg indica, in modo inquietante e piacevole, un saldo accoppiamento. In questo ciclo di scambio matrimoniale, la bestialità ha un nuovo status” (Haraway 1995)
-*Per ulteriori approfondimenti sul concetto della Affect Theory in filosofia, cfr., ad es., Jonathan Flatley, Affective Mapping: Melancholia and the Politics of Modernism, Harvard University Press, Cambridge, 2008; e Melissa Gregg e Gregory J. Seigworth (a cura di), The Affect Theory Reader, Duke University Press, Durham, 2010.</t>
-  </si>
-  <si>
-    <t>*Philip Armstrong and Laurence Simmons, Bestiary: An Introduction, in L. Simmons e P. Armstrong (a cura di), Knowing Animals, Brill, Leiden, 2007, pp. 1-24.        
-*Rosi Braidotti, Il post-umano. La vita oltre l’individuo, oltre la specie, oltre la morte, trad. it. di A. Balzano, DeriveApprodi, Roma, 2014, pp. 73-75.        
-*Jacques Derrida, L’animale che dunque sono, Ed Jaca Book, Milano, 2006, p. 47.      
-*Donna Haraway, Manifesto cyborg. Donne, tecnologie e biopolitiche del corpo, trad. it. di L. Borghi, Feltrinelli, Milano, 1995, p. 43. Cfr., inoltre, Ibidem, p. 62.        
-*Pramod K. Nayar, Posthumanism, Polity Press, Cambridge, 2014, p. 79.        
-*Carlo Salzani, Dal postumano al postanimale. Il postumanesimo e l’animal turn, in “Liberazioni” n. 37, giugno 2019, pp. 4-18.       
-*Kari Weil, A Report on the Animal Turn, in “Differences: A Journal of Feminist Cultural Studies”, 2010, vol. 21, n. 2, p. 12.</t>
+    <t>[1] Le ultime spiagge di unicità o sono state inquinate o le hanno trasformate in parco giochi: il linguaggio, l’uso di strumenti, il comportamento sociale, gli eventi mentali non stabiliscono più in modo convincente la separazione tra umano e animale. E parecchi non sentono più il bisogno di questa separazione […]. Il cyborg entra nel mito proprio quando si trasgredisce il confine tra umano e animale. Lungi dal segnalare una drastica separazione delle persone dalle altre creature viventi, il cyborg indica, in modo inquietante e piacevole, un saldo accoppiamento. In questo ciclo di scambio matrimoniale, la bestialità ha un nuovo status” (Haraway 1995)
+[2] Per ulteriori approfondimenti sul concetto della Affect Theory in filosofia, cfr., ad es., Jonathan Flatley, Affective Mapping: Melancholia and the Politics of Modernism, Harvard University Press, Cambridge, 2008; e Melissa Gregg e Gregory J. Seigworth (a cura di), The Affect Theory Reader, Duke University Press, Durham, 2010.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">*Philip Armstrong and Laurence Simmons, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Bestiary: An Introduction</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, in L. Simmons e P. Armstrong (a cura di), "Knowing Animals", Brill, Leiden, 2007, pp. 1-24.        
+*Rosi Braidotti, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Il post-umano. La vita oltre l’individuo, oltre la specie, oltre la morte</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, trad. it. di A. Balzano, DeriveApprodi, Roma, 2014, pp. 73-75.        
+*Jacques Derrida, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>L’animale che dunque sono</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, Ed Jaca Book, Milano, 2006, p. 47.      
+*Donna Haraway, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Manifesto cyborg. Donne, tecnologie e biopolitiche del corpo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, trad. it. di L. Borghi, Feltrinelli, Milano, 1995, p. 43. Cfr., inoltre, Ibidem, p. 62.        
+*Pramod K. Nayar, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Posthumanism</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, Polity Press, Cambridge, 2014, p. 79.        
+*Carlo Salzani, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Dal postumano al postanimale. Il postumanesimo e l’animal turn</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, in “Liberazioni” n. 37, giugno 2019, pp. 4-18.       
+*Kari Weil, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>A Report on the Animal Turn</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, in “Differences: A Journal of Feminist Cultural Studies”, 2010, vol. 21, n. 2, p. 12.</t>
+    </r>
   </si>
   <si>
     <t>DELL'ORCHIDEA PITTRICE</t>
@@ -726,12 +846,78 @@
     <t>La 'percepibilità' della natura in Bohme è fondamentalmente corporea (dove il corporeo è antitetico a un discorso raziocinante). Le similarità con il modello del Sublime sono diverse, e la contraddizione con il discorso antropocentrico non spaventa: attraverso la percezione proprio-corporale (il brivido del sublime è a tutti gli effetti una sensazione corporea), l'estetica atmosferica può aggiungere un fertilissimo enzima all'analisi ecologica. La natura, che a questo punto può essere chiamata biosl2], vive nell'estetica atmosferica una possibilità di 'presa in considerazione' finalmente completa. Un modello de-soggettivo può infatti renderci non più punto focale, ma parte di una circonferenza concettuale dalla quale guardare il mondo in senso paratattico. Nell'estetica contemporanea in generale, comunque, si insiste sempre di più sul ruolo del corpo e dell'ambiente nella costruzione della nostra architettura cognitiva. L'uomo, parte integrante del suo stesso ambiente, costruisce la propria esperienza in termini ineliminabilmente relazionali, coinvolto com'è nella materia del mondo. A partire dallo studio di autori classici, come ad esempio John Dewey, e grazie anche al contributo dato dalle scienze cognitive, l'estetica è dunque oggi uno degli ambiti di studio a cui guardare con interesse per ricucire il rapporto con la natura, per costruire un solido impianto teorico a sostegno della nostra naturalità. La nostra amica orchidea non ha dunque più bisogno di essere definita pittrice. Non necessita di un'antropizzazione e le sue enigmatiche abilità artistiche vivono di una loro dignità aliena.</t>
   </si>
   <si>
-    <t>*Un processo, quello di personificazione della natura e delle entità che la vivono, condiviso e diffuso in quasi tutte le culture.
-*Il termine, centrale nella riflessione bio-centrica di Roberto Marchesini, include ogni ente ‘biologico’, estendendo il campo del naturale e quindi riavvicinandolo all’umano.</t>
-  </si>
-  <si>
-    <t>*Gernot Böhme, Atmosphäre. Essays zur neuen Ästhetik, Frankfurt/M., Suhrkamp, 1995, 2003, trad. it. cit. in S. Tedesco, ‘Ästhetische Arbeit’: l’estetica di Gernot Böhme e l’attualità della retorica, in R. Messori (a cura di), Dire l’esperienza estetica, Palermo, Centro Internazionale Studi di Estetica.
-*Roberto Marchesini, Estetica Postumanista, Milano, Meltemi, 2019.</t>
+    <t>[1] Un processo, quello di personificazione della natura e delle entità che la vivono, condiviso e diffuso in quasi tutte le culture.
+[2] Il termine, centrale nella riflessione bio-centrica di Roberto Marchesini, include ogni ente ‘biologico’, estendendo il campo del naturale e quindi riavvicinandolo all’umano.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">*Gernot Böhme, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Atmosphäre. Essays zur neuen Ästhetik</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, Frankfurt/M., Suhrkamp, 1995, 2003, trad. it. cit. in S. Tedesco, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>‘Ästhetische Arbeit’: l’estetica di Gernot Böhme e l’attualità della retorica</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, in R. Messori (a cura di), </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Dire l’esperienza estetica</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, Palermo, Centro Internazionale Studi di Estetica.
+*Roberto Marchesini, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Estetica Postumanista</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, Milano, Meltemi, 2019.</t>
+    </r>
   </si>
   <si>
     <t>SUPERARE LE GABBIE DEL CORPO</t>
@@ -743,29 +929,104 @@
     <t>Il concetto di mobilitazione, come azione diretta nel riconoscimento di esseri in movimento, può essere assunto dalla teoria e dalla prassi antispecista come rimedio ai sistemi di reclusione in cui sono isolati i corpi, animali e umani, in strutture intensive. Come scrivono gli attivisti Marco Reggio e Niccolò Bertuzzi nel libro Smontare la gabbia. Anticapitalismo e movimento di liberazione animalel] è indispensabile 'un effettivo smontaggio dei meccanismi e dei presupposti che danno vita alle gabbie che tengono prigionieri milioni di animali, ma anche un numero sterminato di umani: ex-colonizzati, donne, disabili, migranti, individui variamente esulanti dal binarismo cis-gender, solo per citare alcune categorie di sfruttati/e' Quando gli animali irrompono nello spazio di predominio della specie umana problematizzano le sue tecniche totalizzanti e i suoi dispositivi di isolamento, sviluppando e proponendo nuovi interventi di emergenza per decostruire il sistema. Interessante aspetto della storia femminista e antirazzista è il concetto di intersezionalità che ripensa all'identità di una persona come un elemento unito (in modo inestricabile) a vari fattori sociali e contingenti. Le concettualizzazioni classiche di oppressione - come ad esempio il razzismo, il sessismo, l'omofobia - non agiscono indipendentemente ma in modo interconnesso, creando un sistema che sottolinea l'incrocio di differenti forme di discriminazione. Attraverso un reale approccio 'intersezionale' sarà possibile pertanto smontare le gabbie erette da gerarchie sociali capitalistiche. La riflessione sull'animalità, non a caso, arriva a guardare lo stesso animale umano, poiché - come spiegano Reggio e Bertuzzi - i meccanismi di marginalizzazione e di normalizzazione della violenza sul più debole toccano le questioni dell'animalizzazione dei/delle migranti, delle donne, dei soggetti non eterosessuali e così via. Fra questi, giocano un ruolo rilevante le categorie del pensiero queer, della critica al binarismo e del pensiero decoloniale, all'interno delle quali il 'subalterno' - non necessariamente appartenente all'umano - si pone come breccia di apertura del pensiero univoco e dei sistemi di coercizione.</t>
   </si>
   <si>
-    <t>/ARTICLES/ISSUE1/HUMAN_NOT_HUMAN/OVERCOMING_CAGES/IMAGES/IMG_1.webp</t>
-  </si>
-  <si>
     <t>In Animal Capital: Rendering Life in Biopolitical Times, la professoressa Nicole Shukin sottolinea in che modo il lavoro ottenuto dai corpi tecnologicamente imprigionati degli animali non umani sia legato alla circolazione degli animali come forma stessa di capitale. Essi sono stati e sono tuttora soggetti fondamentali per lo sviluppo del capitalismo, non solo in quanto strumenti e merci per l'accumulo della proprietà, ma soprattutto perché costituiscono una principale fonte di forza-lavoro. Gli animali oggi, coadiuvati dall'utilizzo di tecnologie totalizzanti, sono lavoratori sfruttati sia per il loro impiego produttivo sia per quello riproduttivo, nel quale si rintraccia, per le femmine, un plusvalore commerciale che, nel caso del latte, si estorce dal ciclo naturale. Nel momento in cui si paragonano gli animali ai lavoratori si entra all'interno di una rinnovata prospettiva che introduce il concetto di "agentività" ovvero un'intrinseca resilienza da parte degli animali che arriva a contrastare i modelli estensivi di ingabbiamento. Gli animali, in quanto soggetti agenti, si rendono quindi visibili e attivi, contrapponendosi al principale compito del capitalismo di veicolarli come semplici simulacri da allevamento. Le cosiddette "aziende etiche", ad esempio, propongono un modello di natura estremamente artificializzato, confezionando la fattoria tradizionale come un modello pittoresco facilitato dall'eccitazione mediale delle tecniche innovative. Per "smontare le gabbie" bisogna allora superare la sfera unidirezionale dell'individuale e tagliare la via che va dall'umano all'animale, lasciando così che il movimento arrivi ai corpi. Bisogna adottare una prospettiva della "spaccatura", come la definisce Donna Haraway in Manifesto cyborg (1995), secondo cui gli animali non sono trasparenti, ma dotati di una specifica densità resistente alle manipolazioni dell'umano. L'antispecismo si oppone alle retoriche capitalistiche che hanno bisogno di corpi immobili e si afferma invece come una "politica delle alleanze" non chimerica. Esso sostiene così un'interspecie delle relazioni e una riorganizzazione sociale che non sfrutti più nessun tipo di vita ma che accetti le differenze. Il fine ultimo non è trovare nuove costruzioni immaginifiche degli animali ma attivare rinnovate pratiche affinché umani e non umani si connettano per fare mondo insieme.</t>
   </si>
   <si>
-    <t>/ARTICLES/ISSUE1/HUMAN_NOT_HUMAN/OVERCOMING_CAGES/IMAGES/IMG_2.webp</t>
-  </si>
-  <si>
     <t>Il concetto di corpo, sia umano che non, è spesso analizzato nell'arte contemporanea come strumento di studio e messaggio politico e permette di costruire narrazioni fratturate che riposizionano l'individuo-animale all'interno di un simbolico scenario. Si inserisce in questo senso la ricerca estetica dell'artista inglese Marianna Simnett che, influenzata dalla "seconda ondata" artistica del femminismo, propone con il suo lavoro di situare il corpo e il sé al centro dei dibattiti sulla società odierna. Unendo la struttura mitica delle favole con una forma documentaristica, l'artista realizza veri e propri film che raccontano storie non lineari di terrore fisico in cui la contaminazione, la malattia e la violazione si combinano ai temi della sessualità, dell'identità e della metamorfosi. Nei lavori Across The Udder (2014), Blood (2015) e Blue Roses (2015), ad esempio, il corpo - frammentato in vie digestive, passaggi nasali e reti circolatorie - fornisce lo scenario per una serie di racconti ora inquietanti ora malinconici interpretati da una squadra eterogenea composta da bambini, scarafaggi cyborg e vergini giurate. In ciascuno dei video, si è trasportati direttamente in un sistema biologico, umano o animale, minacciato da infezioni, malattie o disturbi di vario tipo. Il dentro e il fuori di un corpo vengono così alternati sviluppando narrazioni che mostrano scenari tra interno organico ed esterno macchinico. La giocosità paradossale degli elementi visivi attenua l'orrorifico, stempera il cruento, portando lo spettatore all'interno di un'estatica e stravagante fiaba. I racconti moralmente cupi e le grottesche vibrazioni fantascientifiche sono inoltre teatralizzati da gruppi di non-attori (bambini, agricoltori, dottori) che confondono ciò che è reale da ciò che è immaginario e viceversa, filtrando l'immediata finzione della pellicola. Al centro di queste visioni in cui i corpi diventando altro da loro, emergono problematiche questioni socio-politiche che rimettono in discussione i concetti di vulnerabilità, autonomia e controllo. Tra la follia e le bizzarre contrapposizioni dei suoi mondi schizofrenici, Marianna Simnett rende reale lo spettro dell'affermazione cyborgiana secondo cui "siamo tutti chimere, teorizzati e fabbricati ibridi di macchina e organismo". Lo spazio contestato della natura - affiancato metaforicamente a quello della virtù femminile - viene ora minacciato ora ricomposto secondo una prospettiva che permette di superare il pensiero individuale rivelando realtà subalterne contrapposte al dominio tecnico-capitalista. In alcuni suoi lavori, la stessa artista si è sottoposta ad una reale coercizione fisico-clinica, come in The Needle and The Larynx (2016) dove accetta di modificare e abbassare il tono della sua voce mediante un intervento chirurgico alle corde vocali. Il corpo si mostra così al pubblico nella sua connaturata fragilità e lo stato di empatia che ne consegue è intrinseco al lavoro quanto l'orrore che lo attiva. Mentre il controllo della morte offre un corpo intero e passivo, Simnett ne evoca uno frammentato e alieno che, livellando ogni gerarchia specista e attivando viscerali e contrastanti emozioni, può arrivare a "smontare le gabbie" socio-politiche dell'oggi titanico e apocalittico. I corpi in metamorfosi creano così le modalità per affermare le transizioni come costitutive di ogni soggettività e non solo di quelle non conformi.</t>
   </si>
   <si>
     <t>/ARTICLES/ISSUE1/HUMAN_NOT_HUMAN/OVERCOMING_CAGES/IMAGES/IMG_3.webp</t>
   </si>
   <si>
-    <t>*Nell'articolo Quando brucia il tetto di una cattedrale (pubblicato su «Not - NERO magazine» il 30 aprile 2019) Federica Timeto analizza nella sezione "Gabbie" la questione animale e la teoria antispecista partendo dai saggi di Marco Reggio e Nicolò Bertuzzi.</t>
-  </si>
-  <si>
-    <t>*Donna J. Haraway, Chtulucene, Roma, NERO, 2019.
-* Donna J. Haraway, Manifesto cyborg, Milano, Feltrinelli, 1995.
-*Marco Reggio, Niccolò Bertuzzi, Smontare la gabbia. Anticapitalismo e movimento di liberazione animale, Milano, Mimesis, 2019.
-*Nicole Shukin, Animal Capital: Rendering Life in Biopolitical Times, Minneapolis, University of Minnesota Press, 2009.
-*Federica Timeto, Quando brucia il tetto di una cattedrale, in «Not», 30 aprile 2019.</t>
+    <t>[1] Nell'articolo Quando brucia il tetto di una cattedrale (pubblicato su «Not - NERO magazine» il 30 aprile 2019) Federica Timeto analizza nella sezione "Gabbie" la questione animale e la teoria antispecista partendo dai saggi di Marco Reggio e Nicolò Bertuzzi.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">*Donna J. Haraway, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Chtulucene</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, Roma, NERO, 2019.
+* Donna J. Haraway, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Manifesto cyborg</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, Milano, Feltrinelli, 1995.
+*Marco Reggio, Niccolò Bertuzzi, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Smontare la gabbia. Anticapitalismo e movimento di liberazione animale</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, Milano, Mimesis, 2019.
+*Nicole Shukin, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Animal Capital: Rendering Life in Biopolitical Times</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">, Minneapolis, University of Minnesota Press, 2009.
+*Federica Timeto, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Quando brucia il tetto di una cattedrale</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, in «Not», 30 aprile 2019.</t>
+    </r>
   </si>
   <si>
     <t>ESPERIENZE IMMERSIVE</t>
@@ -2514,7 +2775,7 @@
       <name val="&quot;Google Sans&quot;"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2549,6 +2810,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
         <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -2653,7 +2920,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2747,6 +3014,9 @@
     <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -2767,6 +3037,9 @@
     </xf>
     <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2793,7 +3066,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2802,10 +3075,10 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2814,25 +3087,25 @@
     <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3682,7 +3955,9 @@
         <f t="shared" si="2"/>
         <v>issues/ISSUE4_VOL_III</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8">
+        <v>15.0</v>
+      </c>
       <c r="J7" s="8" t="s">
         <v>31</v>
       </c>
@@ -4139,7 +4414,9 @@
     <col customWidth="1" min="9" max="11" width="15.75"/>
     <col customWidth="1" min="12" max="12" width="26.38"/>
     <col customWidth="1" min="13" max="41" width="19.63"/>
-    <col customWidth="1" min="42" max="45" width="15.75"/>
+    <col customWidth="1" min="42" max="43" width="15.75"/>
+    <col customWidth="1" min="44" max="44" width="14.38"/>
+    <col customWidth="1" min="45" max="45" width="39.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customHeight="1">
@@ -4283,10 +4560,10 @@
       <c r="A2" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>165</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4296,247 +4573,247 @@
         <f t="shared" ref="E2:E4" si="1">A2</f>
         <v>THE ANIMAL TURN ISSUE</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="32" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="32"/>
+      <c r="O2" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="33"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="32"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="9"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="32"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="33"/>
       <c r="Y2" s="9"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="32"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="33"/>
       <c r="AB2" s="9"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="32"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="33"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="32"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="33"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ2" s="34"/>
+      <c r="AI2" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ2" s="35"/>
       <c r="AK2" s="15"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="35"/>
       <c r="AN2" s="15"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="31" t="b">
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ2" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR2" s="31" t="b">
+      <c r="AQ2" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR2" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS2" s="31" t="s">
-        <v>173</v>
+      <c r="AS2" s="32" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>165</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" si="1"/>
         <v>DELL'ORCHIDEA PITTRICE</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="31" t="s">
+      <c r="F3" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>176</v>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>178</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="33" t="s">
+        <v>180</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="T3" s="34"/>
+      <c r="U3" s="33" t="s">
+        <v>184</v>
       </c>
       <c r="V3" s="9"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="32" t="s">
-        <v>183</v>
+      <c r="W3" s="34"/>
+      <c r="X3" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="32" t="s">
-        <v>184</v>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="33" t="s">
+        <v>186</v>
       </c>
       <c r="AB3" s="9"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="32" t="s">
-        <v>185</v>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="AE3" s="9"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="32" t="s">
-        <v>186</v>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="AH3" s="15"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="32"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="33"/>
       <c r="AK3" s="9"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="32"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33"/>
       <c r="AN3" s="9"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="31" t="b">
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ3" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR3" s="31" t="b">
+      <c r="AQ3" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS3" s="31" t="s">
-        <v>188</v>
+      <c r="AS3" s="32" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>SUPERARE LE GABBIE DEL CORPO</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="31" t="s">
+      <c r="F4" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="34" t="str">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="35" t="str">
         <f t="shared" ref="L4:L23" si="2">F4</f>
         <v>Il concetto di mobilitazione, come azione diretta nel riconoscimento di esseri in movimento, può essere assunto dalla teoria e dalla prassi antispecista come rimedio ai sistemi di reclusione in cui sono isolati i corpi, animali e umani, in strutture intensive. Come scrivono gli attivisti Marco Reggio e Niccolò Bertuzzi nel libro Smontare la gabbia. Anticapitalismo e movimento di liberazione animalel] è indispensabile 'un effettivo smontaggio dei meccanismi e dei presupposti che danno vita alle gabbie che tengono prigionieri milioni di animali, ma anche un numero sterminato di umani: ex-colonizzati, donne, disabili, migranti, individui variamente esulanti dal binarismo cis-gender, solo per citare alcune categorie di sfruttati/e' Quando gli animali irrompono nello spazio di predominio della specie umana problematizzano le sue tecniche totalizzanti e i suoi dispositivi di isolamento, sviluppando e proponendo nuovi interventi di emergenza per decostruire il sistema. Interessante aspetto della storia femminista e antirazzista è il concetto di intersezionalità che ripensa all'identità di una persona come un elemento unito (in modo inestricabile) a vari fattori sociali e contingenti. Le concettualizzazioni classiche di oppressione - come ad esempio il razzismo, il sessismo, l'omofobia - non agiscono indipendentemente ma in modo interconnesso, creando un sistema che sottolinea l'incrocio di differenti forme di discriminazione. Attraverso un reale approccio 'intersezionale' sarà possibile pertanto smontare le gabbie erette da gerarchie sociali capitalistiche. La riflessione sull'animalità, non a caso, arriva a guardare lo stesso animale umano, poiché - come spiegano Reggio e Bertuzzi - i meccanismi di marginalizzazione e di normalizzazione della violenza sul più debole toccano le questioni dell'animalizzazione dei/delle migranti, delle donne, dei soggetti non eterosessuali e così via. Fra questi, giocano un ruolo rilevante le categorie del pensiero queer, della critica al binarismo e del pensiero decoloniale, all'interno delle quali il 'subalterno' - non necessariamente appartenente all'umano - si pone come breccia di apertura del pensiero univoco e dei sistemi di coercizione.</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="P4" s="9" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="32" t="s">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" s="33" t="s">
         <v>195</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="34"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="35"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="34"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="35"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="34"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="35"/>
       <c r="AB4" s="15"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="34"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="35"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="34"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="35"/>
       <c r="AH4" s="15"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="32"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="33"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="32"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="33"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="31" t="b">
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ4" s="31" t="s">
+      <c r="AQ4" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="AR4" s="31" t="b">
+      <c r="AR4" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS4" s="31" t="s">
+      <c r="AS4" s="32" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4544,10 +4821,10 @@
       <c r="A5" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>200</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -4556,94 +4833,94 @@
       <c r="E5" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="31" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="34" t="str">
+      <c r="J5" s="32"/>
+      <c r="K5" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="35" t="str">
         <f t="shared" si="2"/>
         <v>L'esperienza è uno dei beni di consumo a oggi più diffusi, fuori e dentro il mondo dell'arte. Spesso regaliamo a amici e parenti cofanetti che diano diritto a momenti rilassanti, intime cenette, degustazioni; tutti desideriamo partire per viaggi avventurosi verso località lontane e difficilmente raggiungibili, di cui ci piace dare prova sui social, condividendo selfie e racconti. Noi eravamo lì, in quel tempo e in quello spazio irripetibili: un'esperienza unica. Così la testimonianza del nostro vivere diventa il vivere stesso, attraverso i dispositivi che la tecnologia ci fornisce. Esempio paradigmatico è il caso di Airbnb: a un costo spesso poco accessibile, si possono vivere diverse attività di contorno al viaggio. Da una situazione casalinga in cui preparare le lasagne con una nonna bolognese a un avventuroso campeggio sugli alberi in Costa Rica, ogni momento può diventare irripetibile. Anche la pubblicità non è estranea al meccanismo dell'esperienza: partendo dallo storico esempio di Coca-Cola con il suo celebre 'Taste the Feeling', passando per 'Fate l'amore con il sapore' di Müller, fino ad arrivare a 'No Martini. No party', gli spot commerciali sottolineano costantemente l'importanza dell'esserci, del partecipare, di essere protagonisti assieme al prodotto venduto</v>
       </c>
       <c r="M5" s="15"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="32" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="33" t="s">
         <v>204</v>
       </c>
       <c r="P5" s="15"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="32" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="33" t="s">
         <v>205</v>
       </c>
       <c r="S5" s="15"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="32" t="s">
+      <c r="T5" s="36"/>
+      <c r="U5" s="33" t="s">
         <v>206</v>
       </c>
       <c r="V5" s="15"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="32" t="s">
+      <c r="W5" s="36"/>
+      <c r="X5" s="33" t="s">
         <v>207</v>
       </c>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="32" t="s">
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="33" t="s">
         <v>208</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="32" t="s">
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="33" t="s">
         <v>210</v>
       </c>
       <c r="AE5" s="9"/>
-      <c r="AF5" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AF5" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG5" s="33" t="s">
         <v>211</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="32" t="s">
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="33" t="s">
         <v>213</v>
       </c>
       <c r="AK5" s="15"/>
-      <c r="AL5" s="33" t="s">
+      <c r="AL5" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="AM5" s="34"/>
+      <c r="AM5" s="35"/>
       <c r="AN5" s="15"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="31" t="b">
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS5" s="31" t="s">
+      <c r="AS5" s="32" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>200</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -4652,98 +4929,98 @@
       <c r="E6" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="31" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="34" t="str">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="35" t="str">
         <f t="shared" si="2"/>
         <v>È marzo 2018 quando Enea LeFons dà vita al progetto "30 days in VR" in un appartamento art déco di Torino. Grazie alle più sofisticate tecnologie di virtual reality, il programmatore-designer è il primo uomo ad aver provato a immergersi in un mondo parallelo per un mese, vivendo 24 ore su 24 - e contro qualsivoglia visione distopica - in una dimensione virtuale. La redazione di TBD lo ha intervistato per conoscere qual è il suo punto di vista sul rapporto uomo-arte-tecnologia, per scoprire in quale direzione sta evolvendo ora il progetto e quali possono essere le sue implicazioni nel reale. Segue l'intervista.</v>
       </c>
       <c r="M6" s="15"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="32" t="s">
+      <c r="N6" s="36"/>
+      <c r="O6" s="33" t="s">
         <v>220</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="32" t="s">
+      <c r="Q6" s="36"/>
+      <c r="R6" s="33" t="s">
         <v>222</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="32" t="s">
+      <c r="T6" s="36"/>
+      <c r="U6" s="33" t="s">
         <v>224</v>
       </c>
       <c r="V6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="W6" s="35"/>
-      <c r="X6" s="32" t="s">
+      <c r="W6" s="36"/>
+      <c r="X6" s="33" t="s">
         <v>226</v>
       </c>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="32" t="s">
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="33" t="s">
         <v>227</v>
       </c>
       <c r="AB6" s="15"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="32" t="s">
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="33" t="s">
         <v>228</v>
       </c>
       <c r="AE6" s="15"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="32" t="s">
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="33" t="s">
         <v>229</v>
       </c>
       <c r="AH6" s="15"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="32" t="s">
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="AK6" s="38"/>
+      <c r="AK6" s="40"/>
       <c r="AL6" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="AM6" s="32" t="s">
+      <c r="AM6" s="33" t="s">
         <v>232</v>
       </c>
       <c r="AN6" s="15"/>
-      <c r="AO6" s="33" t="s">
+      <c r="AO6" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="AP6" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="31" t="b">
+      <c r="AP6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS6" s="31" t="s">
+      <c r="AS6" s="32" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>200</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -4753,86 +5030,86 @@
         <f t="shared" ref="E7:E12" si="3">A7</f>
         <v>CONTRO L'IMMERSIVO ORNAMENTALE</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="31" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="34" t="str">
+      <c r="J7" s="32"/>
+      <c r="K7" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Adolf Loos, architetto austriaco di inizio Novecento, si può considerare uno dei primi fautori di quella crociata contro l'ornamento condivisa dall'intellighenzia architettonica dell'epoca. A suo dire, infatti: "L evoluzione della civiltà è sinonimo dell'eliminazione dell'ornamento dall'oggetto d'uso" (Loos 1972, p. 220). In piena linea con il sistema depurante dell'epoca (che ha interessato trasversalmente tutta la cultura occidentale), Loos diviene medium perfetto dell'ideologia moderna e, contestualmente, di quella iper-capitalista. Citando direttamente Loos in Parole nel Vuoto: "'ornamento è forza-lavoro sprecata e perciò è spreco di salute. E così è stato sempre. Ma oggi esso significa anche spreco di materiale, e le due cose insieme significano spreco di capitale" (Loos 1972, p. 223). Il contesto architettonico in Loos non può che essere circoscritto all'ambito della funzione in quanto la creazione formale è materia del genio: "| singolo individuo non ha la facoltà di creare una forma, quindi nemmeno l'architetto. L'architetto però ripete continuamente questo impossibile tentativo - e sempre senza successo. la forma e l'ornamento sono il risultato dell'inconscia opera comune degli uomini che appartengono a un certo cerchio di civiltà. Tutto il resto è arte. L'arte è la volontà ostinata del genio. Dio gli ha affidato questo compito" (Loos 1972, p. 327) . Loos resuscita il Dio ucciso da Nietzsche per relegarlo a metafisico committente dell'arte bella senza funzione. Loos è per certi versi un autore problematico. Il discorso qui preso in esame si carica infatti di una serie di costrutti sociali che attivano spinte colonialiste e fortemente razziste. L'idea di un soggetto "in-civile" che feticizza il piacere ornamentale (in architettura e non), divene per Loos contraltare del ben più civile edificio funzionalista. A ridefinire tuttavia le potenzialità dell'ornamento ci pensa già Adorno, che in tempi di modernità traumatizzata spiega la possibilità di far dialogare la fantasia - quindi l' 'ornamento' nel senso in cui lo intendeva Loos - e la funzione in architettura. In Adorno funzionalità e fantasia (ornamentale) convivono in un rapporto intrecciato, generando un'atmosfera vaporizzata e inscindibile. Una posizione complessa, che non rinnega o elimina il funzionalismo come vettore progettuale, ma lo condanna se ritenuto narrazione univoca e universale.</v>
       </c>
       <c r="M7" s="15"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="32" t="s">
+      <c r="N7" s="36"/>
+      <c r="O7" s="33" t="s">
         <v>237</v>
       </c>
       <c r="P7" s="15"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="32" t="s">
+      <c r="Q7" s="36"/>
+      <c r="R7" s="33" t="s">
         <v>238</v>
       </c>
       <c r="S7" s="15"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="32" t="s">
+      <c r="T7" s="36"/>
+      <c r="U7" s="33" t="s">
         <v>239</v>
       </c>
       <c r="V7" s="15"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="32" t="s">
+      <c r="W7" s="36"/>
+      <c r="X7" s="33" t="s">
         <v>240</v>
       </c>
       <c r="Y7" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="32" t="s">
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="33" t="s">
         <v>242</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="34"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="35"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="34"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="35"/>
       <c r="AH7" s="15"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="34"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="35"/>
       <c r="AK7" s="15"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="34"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="35"/>
       <c r="AN7" s="15"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="31" t="b">
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ7" s="31" t="s">
+      <c r="AQ7" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="AR7" s="31" t="b">
+      <c r="AR7" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS7" s="31" t="s">
+      <c r="AS7" s="32" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>247</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -4842,90 +5119,90 @@
         <f t="shared" si="3"/>
         <v>DEL MUTARE DELLE FORME</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="31" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="34" t="str">
+      <c r="J8" s="32"/>
+      <c r="K8" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Nell’epoca del non umano, dove scardinare l’antropocentrismo è programmatico nel discorso estetico, è bene cercare le radici in cui affondano queste intenzioni contemporanee. Grecia e Roma antiche raccontano tramite i miti metamorfici l’incontro dinamico col naturale. Questa narrazione viene reinterpretata nel contemporaneo e cambia di senso, si evolve in termini ‘rivoluzionari’, intendendo il confine tra umano e animale, tra uomo e natura come sempre più labile e eludibile. L’incipit di questo archivio visivo è composto da immagini che coprono un arco temporale dal Seicento all’Ottocento. Questa prima parte è poi ampliata da una sequenza di metamorfosi contemporanee che mette ancora più in luce come le radici del processo di ibridazione tra umano e non umano siano necessarie e propedeutiche alla sua crescita fino ai giorni nostri</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="34"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="34"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="34"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="35"/>
       <c r="V8" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="W8" s="35"/>
-      <c r="X8" s="34"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="35"/>
       <c r="Y8" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="34"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="35"/>
       <c r="AB8" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="34"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="35"/>
       <c r="AE8" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="34"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="35"/>
       <c r="AH8" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="34"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="35"/>
       <c r="AK8" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="34"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="35"/>
       <c r="AN8" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="31" t="b">
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="32" t="b">
         <v>1</v>
       </c>
       <c r="AQ8" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AR8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="36"/>
+      <c r="AR8" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="37"/>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>262</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -4935,86 +5212,86 @@
         <f t="shared" si="3"/>
         <v>NON C'É TEMPO DA PERDERE</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="31" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="34" t="str">
+      <c r="J9" s="32"/>
+      <c r="K9" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="35" t="str">
         <f t="shared" si="2"/>
         <v>La pandemia in atto ci ha colti impreparati sotto molti punti di vista, a cominciare da quello intellettuale. Per chi, come me, si occupa quotidianamente di teoria, la cassetta degli attrezzi è sembrata da subito piuttosto sfornita, inadeguata a descrivere l'attuale situazione di emergenza e a garantire valutazioni e soluzioni che siano utili per tutti. Eppure uno sforzo va fatto, si devono azzardare delle considerazioni perché si possa capire. Prendere appunti su ciò che credevamo di sapere e su quello che viviamo nel presente è forse il primo passo per tentare un bilancio, denunciare delle pieghe problematiche, formulare ipotesi. Se chiudo gli occhi e penso a questi giorni in reclusione, nella testa si agita una folla di immagini: di immagini digitali. Gli schermi dominano il mio quotidiano, l'orizzonte del mio percepito. Fin qui, sembrerebbe, nessuna novità. Gli schermi digitali sono i dispositivi mediali per eccellenza del nostro tempo, superfici operative, che la ricercatrice Galit Wellner propone di considerare al contempo muri e finestre (Wellner 2011). A dire il vero, l'idea che percepiamo il mondo attraverso una finestra si è imposta nella cultura occidentale almeno a partire dall'età moderna, con le leggi rinascimentali della rappresentazione prospettica. Si tratta di una teoria che affonda le sue radici nella convinzione, ampiamente diffusa già nell'antichità, che l'occhio sia la prima finestra attraverso cui ci affacciamo all'esterno, su degli oggetti separati da noi (Carbone 2016). Gli schermi della televisione, del computer, del cellulare, di un qualsiasi smart device abitano lo spazio vissuto e quotidiano, sono una presenza ubiqua, portatile e alle volte indossabile. L'esperienza schermica digitale è oggi pervasiva, gli schermi sono la nostra finestra, e anche di più. In questo caso non abbiamo a che fare soltanto con una metafora impiegata a fini euristici: si tratta effettivamente di una via di accesso a un contesto di una differente materialità rispetto al mondo fisico, eppure reale (Wellner 2011). Secondo Wellner, infatti, computer e smartphone condividono la tendenza a distrarre l'attenzione del fruitore dai suoi dintorni, indirizzandola verso ambienti virtuali altri. In questo senso sono in grado di separarci dal contesto che ci circonda e contemporaneamente di fornire l'accesso a spazi remoti, privati o condivisi. La catalizzazione della nostra attenzione, o meglio,la distrazione dal luogo in cui ci troviamo fisicamente, non è certo esclusiva delle tecnologie digitali e può essere considerata una caratteristica condivisa da tutti i media tecnologici. Attualmente però le tecnologie digitali sono a tal punto diffuse da essere in grado di garantire una costante interconnessione di luoghi e persone: ogni giorno siamo contemporaneamente dove si trova il nostro corpo e dove ci portano gli schermi. Per dirla con Don Inde, veniamo così coinvolti in una 'quasi-illusione' (Wellner 2011). Il significato del termine 'schermo' rimanda a qualcosa che nasconde alla vista, sia nel senso che fornisce una protezione sia nel senso che comporta un impedimento: è una superficie che mette in evidenza qualcosa e che, proprio per questo, contemporaneamente esclude qualcos'altro (Carbone 2016). Ciò che rende visibile è frutto di una selezione, esso mostra secondo le sue modalità delle porzioni di spazio, tempo e informazione, educando bisogni e desideri del fruitore insieme alle sue abitudini percettive. Gli schermi del nostro quotidiano raccolgono immagini, video, testi, consentono di parlare con altre persone e funzionano ormai quasi tutti tramite il tocco delle dita. Onnipresenti e interconnessi, ci guardano mentre li guardiamo, modificando il modo in cui interpretiamo il mondo e in cui ci comportiamo.</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="34"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="32" t="s">
+      <c r="Q9" s="34"/>
+      <c r="R9" s="33" t="s">
         <v>266</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="32" t="s">
+      <c r="T9" s="34"/>
+      <c r="U9" s="33" t="s">
         <v>268</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="32" t="s">
+      <c r="W9" s="34"/>
+      <c r="X9" s="33" t="s">
         <v>270</v>
       </c>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="34"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="35"/>
       <c r="AB9" s="15"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="34"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="35"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="34"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="35"/>
       <c r="AH9" s="15"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="34"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="35"/>
       <c r="AK9" s="15"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="34"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="35"/>
       <c r="AN9" s="15"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="31" t="b">
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ9" s="31" t="s">
+      <c r="AQ9" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="AR9" s="31" t="b">
+      <c r="AR9" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS9" s="31" t="s">
+      <c r="AS9" s="32" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>262</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -5024,68 +5301,68 @@
         <f t="shared" si="3"/>
         <v>INDEPENDENT REPUBLIC OF YOUR HOME</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="31" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="34" t="str">
+      <c r="J10" s="32"/>
+      <c r="K10" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M10" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="34"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="34"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="35"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="34"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="35"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="34"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="35"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="34"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="35"/>
       <c r="AB10" s="15"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="34"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="35"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="34"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="35"/>
       <c r="AH10" s="15"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="34"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="35"/>
       <c r="AK10" s="15"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="34"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="35"/>
       <c r="AN10" s="15"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="31" t="b">
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="31" t="b">
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS10" s="36"/>
+      <c r="AS10" s="37"/>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>262</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -5095,96 +5372,96 @@
         <f t="shared" si="3"/>
         <v>LEARNING FROM MISTY BEETHOVEN</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="31" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="34" t="str">
+      <c r="J11" s="32"/>
+      <c r="K11" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Allora sono 50, ti aspetto fuori fra 10 minuti, ora devo incontrare Napoleone' - 'Napoleone?' - 'Sì, Napoleone!'; Misty si alza e sinuosa percorre la sala cinematografica per raggiungere un anziano che indossa un'improbabile divisa militare tardo settecentesca. 'Puntualissimo!', esclama Misty e, dopo un fugace bacio, inizia a masturbarlo. Misty procede indifferente con il suo lavoro, si gira verso l'intrigante sconosciuto (e futuro cliente) a cui poco prima aveva dato un appuntamento. La stimolazione meccanica procede, il Napoleone contemporaneo si sincronizza con la pellicola proiettata nel cinema, ignora Misty, e in un vorticoso susseguirsi di piani meta cinematografici, l'anziano imperatore francese e il porno attore del film raggiungono l'orgasmo in contemporanea'</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="32" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="33" t="s">
         <v>278</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="32"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="33" t="s">
+      <c r="T11" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="U11" s="33" t="s">
         <v>281</v>
       </c>
       <c r="V11" s="15"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="32" t="s">
+      <c r="W11" s="34"/>
+      <c r="X11" s="33" t="s">
         <v>282</v>
       </c>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="32"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="33"/>
       <c r="AB11" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="32" t="s">
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="33" t="s">
         <v>284</v>
       </c>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="33" t="s">
+      <c r="AF11" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="AG11" s="32" t="s">
+      <c r="AG11" s="33" t="s">
         <v>286</v>
       </c>
       <c r="AH11" s="15"/>
-      <c r="AI11" s="40" t="s">
+      <c r="AI11" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="AJ11" s="41" t="s">
+      <c r="AJ11" s="43" t="s">
         <v>288</v>
       </c>
       <c r="AK11" s="9"/>
-      <c r="AL11" s="40" t="s">
+      <c r="AL11" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="AM11" s="32" t="s">
+      <c r="AM11" s="33" t="s">
         <v>290</v>
       </c>
       <c r="AN11" s="15"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="37"/>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>262</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -5194,19 +5471,19 @@
         <f t="shared" si="3"/>
         <v>J'AI MAL À L'AUTRE</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="31" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="34" t="str">
+      <c r="J12" s="32"/>
+      <c r="K12" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35" t="str">
         <f t="shared" si="2"/>
         <v>L'abbraccio e il bacio più lenti della storia avvengono, con dei movimenti pesanti e morbidi, sul pavimento di un grande museo. Il pubblico guarda attonito una scena che sembra accadere al di fuori della sfera del reale. Questa 'situazione costruita', come la definisce il suo autore, è The Kiss, creata da Tino Sehgal nel 2003.
 Sospirare per la presenza corporea: le due metà dell'androgino sospirano l'una per l'altra, come se ogni respiro, incompleto, volesse confondersi con l'altro: immagine dell'abbraccio, in quanto esso fonde le due immagini in una sola: nell'assenza amorosa io sono, tristemente, un'immagine staccata, che si secca, ingiallisce, s'accartoccia'.
@@ -5216,66 +5493,66 @@
       <c r="M12" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="42" t="s">
+      <c r="N12" s="40"/>
+      <c r="O12" s="44" t="s">
         <v>294</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="Q12" s="35"/>
+      <c r="Q12" s="36"/>
       <c r="R12" s="12" t="s">
         <v>296</v>
       </c>
       <c r="S12" s="15"/>
-      <c r="T12" s="33" t="s">
+      <c r="T12" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="U12" s="32" t="s">
+      <c r="U12" s="33" t="s">
         <v>298</v>
       </c>
       <c r="V12" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="W12" s="35"/>
-      <c r="X12" s="32" t="s">
+      <c r="W12" s="36"/>
+      <c r="X12" s="33" t="s">
         <v>300</v>
       </c>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="33" t="s">
+      <c r="Z12" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="AA12" s="34"/>
+      <c r="AA12" s="35"/>
       <c r="AB12" s="15"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="34"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="35"/>
       <c r="AE12" s="15"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="34"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="35"/>
       <c r="AH12" s="15"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="34"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="35"/>
       <c r="AK12" s="15"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="34"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="35"/>
       <c r="AN12" s="15"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="31" t="b">
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AR12" s="31" t="b">
+      <c r="AR12" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS12" s="36"/>
+      <c r="AS12" s="37"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>262</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -5284,96 +5561,96 @@
       <c r="E13" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="31" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="34" t="str">
+      <c r="J13" s="32"/>
+      <c r="K13" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35" t="str">
         <f t="shared" si="2"/>
         <v>A pensarci bene Zoom non esisteva fino a poco, pochissimo tempo fa. Aspettate, forse è meglio riformulare questa frase: Zoom esisteva eccome, ma più nel nostro immaginario che nella realtà. Come tante altre sue cugine più o meno lontane, fino a poche settimane fa questa app non era mai stata considerata una parte integrante del nostro vivere. Eppure in poco tempo telelavoro, didattica a distanza e isolamento sociale hanno reso la piattaforma gratuita una necessità. I download giornalieri dell'app ci dimostrano quanto Zoom abbia inciso sulle nostre abitudini. Su scala globale, sono passati da 171 mila di metà febbraio a 2,41 milioni di fine marzo, con un incremento del 1.300% [1]. Al tempo stesso sarebbe riduttivo semplificare l'intera questione e considerare Zoom come unico protagonista, quando nelle ultime settimane sono prolificati tanti altri servizi simili: Google Meet, FaceTime, Whatsapp, Jitsi, Houseparty fino all'arrivo di Facebook Rooms. A pensarci bene l'unico a mancare all'appello è il veterano Skype, che fatica a competere con le piattaforme più recenti. Presa coscienza del vasto panorama che ci circonda in qualità di produttori-spettatori (per semplicità utilizzeremo più spesso il termine 'utenti') bisogna però constatare quanto Zoom la faccia da padrone, complice la facilità di accesso e la possibilità di condivisioni live sui Social Network. Inoltre, nel pensare alla loro capacità virale, è senz'altro lui il fiero e aitante responsabile di ogni genere di contenuto visivo: dirette streaming, webinar, meme e screenshot di qualsivoglia momentum-mementum. Tutte queste esperienze sono riconducibili al concetto di cultura partecipativa, un aspetto fondamentale della web culture, ed è proprio dall'osservazione della diffusione visuale sul web di queste immagini-schermo che prende avvio questa breve riflessione.</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="32" t="s">
+      <c r="N13" s="36"/>
+      <c r="O13" s="33" t="s">
         <v>306</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="S13" s="33" t="s">
+      <c r="S13" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="T13" s="35"/>
-      <c r="U13" s="32" t="s">
+      <c r="T13" s="36"/>
+      <c r="U13" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="V13" s="33" t="s">
+      <c r="V13" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="W13" s="35"/>
-      <c r="X13" s="32" t="s">
+      <c r="W13" s="36"/>
+      <c r="X13" s="33" t="s">
         <v>313</v>
       </c>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="33" t="s">
+      <c r="Z13" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="AB13" s="33" t="s">
+      <c r="AB13" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="34"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="35"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="34"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="35"/>
       <c r="AH13" s="15"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="34"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="35"/>
       <c r="AK13" s="15"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="34"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="35"/>
       <c r="AN13" s="15"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="31" t="b">
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ13" s="31" t="s">
+      <c r="AQ13" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="AR13" s="31" t="b">
+      <c r="AR13" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS13" s="31" t="s">
+      <c r="AS13" s="32" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>262</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -5383,68 +5660,68 @@
         <f t="shared" ref="E14:E22" si="4">A14</f>
         <v>NOLI ME TANGERE - ATLAS OF SOCIAL DISTANCING</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="31" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="34" t="str">
+      <c r="J14" s="32"/>
+      <c r="K14" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M14" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="34"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="35"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="34"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="35"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="34"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="35"/>
       <c r="V14" s="15"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="34"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="35"/>
       <c r="Y14" s="15"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="34"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="35"/>
       <c r="AB14" s="15"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="34"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="35"/>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="34"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="35"/>
       <c r="AH14" s="15"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="34"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="35"/>
       <c r="AK14" s="15"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="34"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="35"/>
       <c r="AN14" s="15"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="31" t="b">
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="31" t="b">
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS14" s="36"/>
+      <c r="AS14" s="37"/>
     </row>
     <row r="15">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>262</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -5454,70 +5731,70 @@
         <f t="shared" si="4"/>
         <v>GRAMMATICA DEL PORNO</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="31" t="s">
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="34" t="str">
+      <c r="J15" s="32"/>
+      <c r="K15" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35" t="str">
         <f t="shared" si="2"/>
         <v>L'attuale epoca geologica potrebbe essere chiamata a giusto titolo Technocene, in quanto le ragioni di definire una nuova epoca hanno senza dubbio più a che fare con l'azione tecnologica piuttosto che con lo stato psicofisiologico umano. Secondo il sociologo Hermínio Martins la definizione di Antropocene, che si rifà all'impatto dell'attività umana sul pianeta soprattutto in relazione all'aumento dell'uso di combustibili fossili e delle relative emissioni di CO2 liberate nell'atmosfera, sarebbe ormai largamente superata [1]. Oggi la ridefinizione della realtà è riconducibile all'azione di tecnologie alimentate non dal petrolio, ma da un flusso costante di dati che dalla rete passa offline [2]. Bot, algoritmi e intelligenze artificiali condizionano in modo opaco la nostra vita, investendo sia la sfera dell'individualità sia quella della nostra socialità. Le applicazioni di messaggistica che controlliamo dai nostri smartphone sono le ultime e più avanzate discendenti delle chat room che spopolavano nei primi anni duemila. L'obiettivo è rimasto pressappoco lo stesso, solo perfezionato grazie a un'evoluzione tecnologica rapidissima: annullare le distanze per connettere tutti con tutti. Il proposito si è realizzato solo in parte, poiché occorre ammettere che applicazioni di questo genere contribuiscono allo stesso tempo a generare gruppi e sottogruppi, delle community nel lessico del web. Pur avendo accesso a una potenziale rubrica infinita di contatti infatti la tendenza è quella di collegarsi con persone che, se non conosciamo già, troviamo affini. Di certo i nostri interessi guidano le nostre relazioni online esattamente come di persona, ma sarebbe ingenuo pensare che la nostra appartenenza a un gruppo online sia l'esito di una scelta in nessun modo mediata. Come è noto, qualunque ricerca o acquisto fatto online viene indicizzato dai motori di ricerca per ottimizzare e reindirizzare ricerche e acquisti futuri. Allo stesso modo siamo guidati a frequentare solo certi ambienti del web che processi algoritmici, dopo aver accuratamente classificato gusti e interessi, hanno individuato come quelli più soddisfacenti per noi. La soddisfazione di un bisogno è infatti il presupposto principale di ogni azione svolta sul web e ciò verso cui la tecnologia indirizza il suo costante aggiornamento, ma che mentre nutre il nostro senso di libertà finisce per limitare almeno in parte la capacità di scegliere. Che si tratti dell'acquisto di un libro, della visione di un film o della scelta di dove andare a cena, nessuna delle nostre decisioni è completamente libera, è necessario riflettere sul fatto che spesso ciò che pensiamo di aver 'scoperto' ci è stato più che altro 'suggerito' da tecnologie sviluppate per prevedere e creare bisogni. Online prima che individui siamo utenti (e forse anche consumatori), occorre quindi essere consapevoli che questo meccanismo di preselezione può condizionare aspetti anche molto più delicati della nostra persona e delle relazioni che intratteniamo, compresa una sfera così personale e che reputiamo intoccabile come la sessualità. Gusti, tendenze e curiosità sono elaborati e restituiti in forma amplificata per soddisfare ogni possibile desiderio: la sessualità e i suoi contorni oggi hanno inevitabilmente a che fare con la tecnologia.</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="34"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="34"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="35"/>
       <c r="S15" s="15"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="34"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="35"/>
       <c r="V15" s="15"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="34"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="35"/>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="34"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="35"/>
       <c r="AB15" s="15"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="34"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="35"/>
       <c r="AE15" s="15"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="34"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="35"/>
       <c r="AH15" s="15"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="34"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="35"/>
       <c r="AK15" s="15"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="34"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="35"/>
       <c r="AN15" s="15"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="37"/>
     </row>
     <row r="16" ht="52.5" customHeight="1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="32" t="s">
         <v>262</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -5527,94 +5804,94 @@
         <f t="shared" si="4"/>
         <v>ONLINE CULTURE WARS PT.1</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="31" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="34" t="str">
+      <c r="J16" s="32"/>
+      <c r="K16" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="35" t="str">
         <f t="shared" si="2"/>
         <v>La raid mentality è un vero e proprio leitmotiv della cultura online occidentale e connette fenomeni apparentemente distanti come lo zoombombing e il movimento di destra alternativa Alt-Right. Il raid online consiste, a grandi linee, nello spammare in massa un contenuto su un sito o una piattaforma, in modo tale da mandare in tilt la sua normale fruibilità. In occasione delle manifestazioni per l'uccisione di George Floyd, si sono verificati episodi che ricordano il modus operandi del raid, ma con cause o effetti paradossali. Penso, per esempio, a ciò che successo al feed di instagram durante il Black Lives Tuesday, quando molti materiali legati alle proteste, che avrebbero dovuto avere la massima visibilità, sono stati letteralmente oscurati dai black square. Simile nell'aspetto al quadrato nero del suprematismo russo, ma politicamente contrapposto al suprematismo bianco, il simbolo del Black Lives Tuesday è stato per molti la conseguenza di un'azione impulsiva, con il risultato involontario di compromettere la risonanza mediatica dell'evento. La sua condivisione era dettata probabilmente da un desiderio di espiazione, per poi liquidare la situazione con contenuti dai quali trasparivano solo vanità e irrilevanza. In quanto icona, il black square è l'esempio perfetto della tendenza al pensiero unico e del settarismo di molti tra coloro che hanno preso parte a questa e ad altre proteste, il cui modo di parlare, argomentare e ragionare ha l'effetto di sterilizzare e non di stimolare discussioni. Una retorica manichea, riassunta nella politica del 'o stai con noi o sei parte del problema' che non ammette sfumature ideologiche, gradienti di pensiero e realtà sfaccettate. Emblema del pensiero unico, il black square dovrebbe semmai suggerire che il nero totale non esiste. Si tratta di uno di quei rituali che portano in un canyon di auto-legittimazione e vittimismo dove tutto è buio, dove l'ideologia sodomizza l'arte. Il problema non è comune all'intero movimento Black Lives Matter, come dimostrano altri esempi verificatisi nelle prime giornate di protesta in America. E' il caso di alcuni fan americani del k-pop che hanno boicottato - stavolta intenzionalmente - l'hashtag #whitelivesmatter e, in aggiunta, hanno intasato i canali che la polizia di Dallas aveva creato per ricevere segnalazioni su attività illegali avvenute durante le proteste. La raid culture ha preso piede come forma di trasgressione gratuita nella comunità di 4chan, sito nato nel 2003, iniziatore di quello stile psycho-lulzy [1] che ha poi avuto una grande diffusione raggiungendo le frontiere del mainstream. Per dare un'idea della sua importanza, basti dire che 4chan è stata la culla di Anonymous e dell'Alt-Right, i due movimenti forse più rappresentativi dell'attivismo politico in Internet, che sempre durante le proteste contro il razzismo hanno avuto un ruolo rilevante nello scenario mediatico internazionale, ponendosi ai poli opposti della barricata.</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="32" t="s">
+      <c r="N16" s="36"/>
+      <c r="O16" s="33" t="s">
         <v>327</v>
       </c>
       <c r="P16" s="15"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="32" t="s">
+      <c r="Q16" s="36"/>
+      <c r="R16" s="33" t="s">
         <v>328</v>
       </c>
       <c r="S16" s="15"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="32" t="s">
+      <c r="T16" s="36"/>
+      <c r="U16" s="33" t="s">
         <v>329</v>
       </c>
       <c r="V16" s="15"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="32" t="s">
+      <c r="W16" s="36"/>
+      <c r="X16" s="33" t="s">
         <v>330</v>
       </c>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="32" t="s">
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="33" t="s">
         <v>331</v>
       </c>
       <c r="AB16" s="15"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="32" t="s">
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="33" t="s">
         <v>332</v>
       </c>
       <c r="AE16" s="15"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="32" t="s">
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="33" t="s">
         <v>333</v>
       </c>
       <c r="AH16" s="15"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="32" t="s">
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="33" t="s">
         <v>334</v>
       </c>
       <c r="AK16" s="15"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="32" t="s">
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="33" t="s">
         <v>335</v>
       </c>
       <c r="AN16" s="15"/>
-      <c r="AO16" s="33" t="s">
+      <c r="AO16" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="AP16" s="31" t="b">
+      <c r="AP16" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ16" s="31" t="s">
+      <c r="AQ16" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="AR16" s="31" t="b">
+      <c r="AR16" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS16" s="31" t="s">
+      <c r="AS16" s="32" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="17" ht="71.25" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="32" t="s">
         <v>262</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -5624,90 +5901,90 @@
         <f t="shared" si="4"/>
         <v>ONLINE CULTURE WARS PT.2</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="31" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="34" t="str">
+      <c r="J17" s="32"/>
+      <c r="K17" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Il fenomeno dell'Alt Right è un complicato palinsesto di post-ideologie, considerazioni sui media e associazioni di gruppi sociali marginalizzati. principale coesione identitaria del gruppo, oltre che bacino di nascita del movimento, è la cultura online, legata soprattutto a 4Chan. 4Chan, un vero e proprio fenomeno culturale e visivo più che una semplice piattaforma pseudo-social, ha infatti codificato, prima ancora della discesa apertamente politica del movimento, una serie di fattori identitari facilmente assimilabili al concetto di trasgressione reattiva.</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="31" t="s">
+      <c r="N17" s="36"/>
+      <c r="O17" s="32" t="s">
         <v>342</v>
       </c>
       <c r="P17" s="15"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="32" t="s">
+      <c r="Q17" s="36"/>
+      <c r="R17" s="33" t="s">
         <v>343</v>
       </c>
       <c r="S17" s="15"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="32" t="s">
+      <c r="T17" s="36"/>
+      <c r="U17" s="33" t="s">
         <v>344</v>
       </c>
       <c r="V17" s="15"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="32" t="s">
+      <c r="W17" s="36"/>
+      <c r="X17" s="33" t="s">
         <v>345</v>
       </c>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="32" t="s">
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="33" t="s">
         <v>346</v>
       </c>
       <c r="AB17" s="15"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="32" t="s">
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="33" t="s">
         <v>347</v>
       </c>
       <c r="AE17" s="15"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="32" t="s">
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="33" t="s">
         <v>348</v>
       </c>
       <c r="AH17" s="15"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="32" t="s">
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="33" t="s">
         <v>349</v>
       </c>
       <c r="AK17" s="15"/>
-      <c r="AL17" s="40" t="s">
+      <c r="AL17" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="AM17" s="34"/>
+      <c r="AM17" s="35"/>
       <c r="AN17" s="15"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="31" t="b">
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS17" s="31" t="s">
+      <c r="AS17" s="32" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -5717,88 +5994,88 @@
         <f t="shared" si="4"/>
         <v>AMATEURS OF THE WORLD, UNITE!</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="31" t="s">
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="34" t="str">
+      <c r="J18" s="32"/>
+      <c r="K18" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Il video amatoriale non è un documentario, non pretende di dire o ricostruire il vero. L’amatore è pronto davanti all’imprevisto, è posizionato perché sceglie di non rimanere indifferente. Non è un giornalista, non è neutrale né oggettivo, lui è lì e in quel momento. Vivo e acuto è lo sguardo, sgranata è l’immagine perché a essere risoluti sono il gesto e l’azione, a scapito della qualità. L’amatore è un martire della causa, la sua o quella di un altro, perché in ultimo la sua causa è farsi portavoce. Producendo immagini ovunque e in qualunque momento, l’amatore contemporaneo tiene traccia del mondo. Supera l’automazione, ma è tutt’uno con la macchina, è il suo occhio e l’occhio meccanico. Il cellulare è la protesi che lo lega al resto del mondo, in una sola rete che lo ha trasformato in un soggetto collettivo, che percepisce, pensa e reagisce (Andén-Papadopoulos 2013). Insieme abbiamo visto Neda Agha-Soltan morire in una strada di Teheran e George Floyd soffocare su un marciapiede di Minneapolis. Da sempre “per ‘sapere’ e per ‘ricordare’ occorre immaginare” (Guerri, Parisi 2013, p. 177), è l’immagine che crea l’evento e lo affida alla comunità. Senza, il nostro è un pensiero cieco. Non erano fotografi i Sonderkommando che riuscirono a strappare le poche immagini che possediamo dello sterminio avvenuto nei campi di concentramento durante la Seconda Guerra Mondiale. Non erano storici né cronisti; le fotografie che hanno prodotto sono sfocate, imperfette, oblique e per questo tanto più preziose, perché riferiscono della precarietà della loro posizione e della pericolosità del loro gesto. Ci hanno consentito di dare un’immagine a ciò che sembrava impossibile immaginare, la vita valeva per loro quanto la testimonianza che hanno garantito. L’amatore capisce la potenza viva dell’immagine, del video e conosce la grammatica elementare del montaggio. L’amatore del passato il più delle volte non aveva la possibilità di condividere direttamente il proprio girato, gli amatori di oggi vogliono il film collettivo, richiedono l’interazione.</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="32" t="s">
+      <c r="N18" s="36"/>
+      <c r="O18" s="33" t="s">
         <v>357</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="32" t="s">
+      <c r="Q18" s="36"/>
+      <c r="R18" s="33" t="s">
         <v>359</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="T18" s="35"/>
-      <c r="U18" s="32" t="s">
+      <c r="T18" s="36"/>
+      <c r="U18" s="33" t="s">
         <v>361</v>
       </c>
       <c r="V18" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="W18" s="35"/>
-      <c r="X18" s="32" t="s">
+      <c r="W18" s="36"/>
+      <c r="X18" s="33" t="s">
         <v>363</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="32" t="s">
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="33" t="s">
         <v>365</v>
       </c>
       <c r="AB18" s="15"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="34"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="35"/>
       <c r="AE18" s="15"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="34"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="35"/>
       <c r="AH18" s="15"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="34"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="35"/>
       <c r="AK18" s="15"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="34"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="35"/>
       <c r="AN18" s="15"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="37"/>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -5808,88 +6085,88 @@
         <f t="shared" si="4"/>
         <v>CLOSE ADD. ABOUT VIEWING ARTWORKS THROUGH ONLINE PLATFORMS</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="31" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="34" t="str">
+      <c r="J19" s="32"/>
+      <c r="K19" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Negli ultimi mesi, segnati dal lockdown e dal distanziamento sociale, il mondo dell’arte contemporanea ha visto confluire progetti, mostre e opere sul web. Da subito si è potuta osservare sia una migrazione di progetti dallo spazio reale a quello virtuale, sia la nascita di nuovi contenuti pensati ad hoc per le piattaforme online. In entrambi i casi sono stati adottati una varietà di format che hanno spaziato dal virtual tour alla performance in diretta, dalla mostra online al podcast o all’intervista in IGTV, canali già conosciuti ed esplorati ben prima che l’emergenza sanitaria incentivasse una digitalizzazione dei contenuti. Il cambiamento sostanziale sta nel fatto che fino a pochi mesi fa la presentazione di un prodotto artistico-culturale nella dimensione del web non escludeva la possibilità di una fruizione in presenza. Alla luce degli ultimi rivolgimenti, è necessario quindi interrogarsi sullo statuto delle immagini che circolano online, considerando anche che opere prodotte con specifici tipi di media hanno dimostrato di essere più assimilabili dalle piattaforme digitali rispetto ad altre. Per esempio, immagini in movimento – film e opere di videoarte – hanno subito un cambio di paradigma radicale nella loro presentazione. Tutto ciò non è naturalmente una novità; sono ormai storicizzate esperienze come Ubuweb, tra i primi archivi accessibili al pubblico per la videoarte, fondato nel 1996 dal poeta e artista concettuale Kenneth Goldsmith. Al contrario di piattaforme open source, Ubu ha da subito seguito un indirizzo curatoriale ben preciso. Goldsmith afferma che Ubu è “come un servizio alla comunità – è un modo per ripagare, è un modo per attirare l’attenzione sul lavoro che normalmente non rientra nei modelli economici tradizionali” [1]. Affrontando un punto fondamentale della distribuzione delle opere video online, sottolinea in diverse occasioni come si tratti di una piattaforma nata per presentare opere che non hanno alcun valore economico, ma storicamente inestimabili. Si può dichiarare che il mercato delle opere di videoarte, fino a qualche mese fa, abbia risposto alla tradizionale “logica della scarsità” secondo cui l’opera più è rara e più è preziosa. Ubu è emblematico del modo in cui i canali di presentazione slegati dal mercato hanno tentato di rappresentare un’alternativa, spingendo verso una democratizzazione e diffusione dei contenuti. Le contingenze dell’emergenza sanitaria hanno portato attori che fino ad ora si erano astenuti dal pubblicare opere video online a ripensare al ruolo del web. L’intenzione di rendere accessibili mostre e opere da casa ha spinto anche le gallerie alla ricerca di nuovi compromessi, nella maggior parte dei casi confluiti nella pubblicazione temporanea dei lavori, ibrido tra lo streaming e l’evento. Dal momento che l’emergenza sanitaria globale non si è ancora conclusa, viene da chiedersi cosa accadrà risolta la crisi. Una volta normalizzata la situazione, l’affollamento di immagini online potrebbe rimanere un ricordo legato alla quarantena, oppure il processo potrebbe continuare con lo sviluppo di nuove piattaforme. Il materiale prodotto in questo contesto potrebbe assumere col tempo lo status di documentazione di un determinato periodo invece che essere considerato un’opera d’arte. Infine lo streaming, ampiamente utilizzato nel corso degli ultimi mesi, potrebbe essere stato completamente sdoganato o solo accettato temporaneamente come compromesso.</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="32" t="s">
+      <c r="N19" s="36"/>
+      <c r="O19" s="33" t="s">
         <v>370</v>
       </c>
       <c r="P19" s="15"/>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="R19" s="32" t="s">
+      <c r="R19" s="33" t="s">
         <v>372</v>
       </c>
       <c r="S19" s="15"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="32" t="s">
+      <c r="T19" s="36"/>
+      <c r="U19" s="33" t="s">
         <v>373</v>
       </c>
       <c r="V19" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="W19" s="38"/>
-      <c r="X19" s="32" t="s">
+      <c r="W19" s="40"/>
+      <c r="X19" s="33" t="s">
         <v>375</v>
       </c>
       <c r="Y19" s="15"/>
-      <c r="Z19" s="33" t="s">
+      <c r="Z19" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="AA19" s="34"/>
+      <c r="AA19" s="35"/>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="34"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="35"/>
       <c r="AE19" s="15"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="34"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="35"/>
       <c r="AH19" s="15"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="34"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="35"/>
       <c r="AK19" s="15"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="34"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="35"/>
       <c r="AN19" s="15"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="31" t="b">
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ19" s="31" t="s">
+      <c r="AQ19" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="AR19" s="31" t="b">
+      <c r="AR19" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS19" s="31" t="s">
+      <c r="AS19" s="32" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="20" ht="61.5" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -5899,88 +6176,88 @@
         <f t="shared" si="4"/>
         <v>ALGORITMI CRITICI</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="31" t="s">
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="34" t="str">
+      <c r="J20" s="32"/>
+      <c r="K20" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Filtrata attraverso gli schermi e moltiplicata infinite volte, l’immagine ha oggi uno statuto problematico, se non fortemente deteriorato. L’enorme quantità di immagini in circolazione, in particolare digitali, ha ridotto il valore del singolo elemento a favore di un continuo potenziamento della massa. L’immagine acquisisce infatti forza e potenza praticamente illimitate quando fa parte di un montaggio di molteplici rappresentazioni. Per riguadagnare un’identità autonoma, smarcandosi dalla corrente di cui fanno parte, le immagini cercano engagement. L’esempio più comune di questa pratica è generare scandalo attraverso le fotografie: la reazione emotiva di chi guarda dà risalto mediatico all’informazione permettendogli di esistere in autonomia. Tramite questo processo di affermazione, l’immagine coinvolge l’uomo come mezzo per diffondersi in modo virale. Tale metodologia agentiva mette in chiaro una delle possibili accezioni attribuibili all’operatività dell’immagine e costituisce un’evoluzione della definizione elaborata da Farocki nel 2004. Nella visione di Farocki l’immagine operativa è prodotto delle macchine per le macchine, un dialogo tra due meccanismi senza intrusione umana, come avviene nel caso delle comunicazioni tra aerei militari (cfr.Farocki 2004). L’immagine virale è operativa poiché è in grado di sfruttare l’uomo, ingranaggio inconsapevole e coinvolto emotivamente, a vantaggio della sua diffusione. L’immagine digitale nasce in relazione a meccaniche computazionali, che rendono la macchina capace di vedere (Arcagni 2018). Se l’idea di un’intelligenza artificiale capace di vedere è parte di un discorso sviluppato a partire dagli anni ‘60, oggi non è più una telecamera a fungere da occhio. Gli algoritmi di cui è costituita l’AI diventano occhi sempre più complessi (com’è il caso di machine e deep learning) attraverso cui le immagini sono smembrate e categorizzate</v>
       </c>
       <c r="M20" s="15"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="32" t="s">
+      <c r="N20" s="36"/>
+      <c r="O20" s="33" t="s">
         <v>382</v>
       </c>
       <c r="P20" s="15"/>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="R20" s="32" t="s">
+      <c r="R20" s="33" t="s">
         <v>384</v>
       </c>
       <c r="S20" s="15"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="32" t="s">
+      <c r="T20" s="36"/>
+      <c r="U20" s="33" t="s">
         <v>385</v>
       </c>
       <c r="V20" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="W20" s="35"/>
-      <c r="X20" s="32" t="s">
+      <c r="W20" s="36"/>
+      <c r="X20" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="32" t="s">
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="33" t="s">
         <v>388</v>
       </c>
       <c r="AB20" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="32" t="s">
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="33" t="s">
         <v>390</v>
       </c>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="34"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="35"/>
       <c r="AH20" s="15"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="34"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="35"/>
       <c r="AK20" s="15"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="34"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="35"/>
       <c r="AN20" s="15"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="31" t="b">
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS20" s="31" t="s">
+      <c r="AS20" s="32" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="21" ht="46.5" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -5990,80 +6267,80 @@
         <f t="shared" si="4"/>
         <v>FROM OUTER SPACE</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="31" t="s">
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="34" t="str">
+      <c r="J21" s="32"/>
+      <c r="K21" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="35" t="str">
         <f t="shared" si="2"/>
         <v>La condizione attuale, a seguito dell’emergenza sanitaria globale dovuta alla diffusione del COVID-19, ci ha portati inevitabilmente a ripensare e a mettere alla prova i concetti di storia, democrazia, potere, socialità e arte. Le posizioni sono tante e diverse, ma su una cosa si è d’accordo: qualcosa è cambiato, anzi tutto è cambiato; dalla nostra quotidianità al nostro rapporto con lo spazio e la tecnologia, tanto con le persone quanto con le immagini. Costretti all’isolamento abbiamo dovuto ridimensionare la nostra visione, non più aperta a un orizzonte lontano, ma ridotta allo schermo di un monitor. Le interazioni comunemente considerate “reali” che coinvolgono cioè una presenza fisica e comunicativa immediata, sono state inevitabilmente sostituite, per buona parte, dall’immagine digitale e dalle sue potenzialità operative. Nei primi anni Duemila W.J.T. Mitchell annuncia il pictorial turn, un fenomeno da lui definito vera e propria riscoperta post linguistica e post semiotica dell’immagine intesa come interazione complessa tra visualità, apparato, istituzioni, discorso, corpi e figuratività. Momento di svolta in cui rivela la nuova possibilità delle immagini di assumere una propria autonomia e capacità di essere luogo dei desideri. Le immagini che ci ritroviamo di fronte sono ormai più che agenti attivi capaci di desiderare, di riprodursi e di esercitare potere alla stregua dell’uomo: diventano ogni giorno di più vero e proprio strumento di costruzione dell’Io, di pari passo con ciò che lo circonda. Lo stesso spazio, domestico, cittadino o urbano, ha assunto una valenza del tutto nuova grazie ai processi immaginativi stimolati dalla riproduzione per immagini. Durante una conversazione sulla piattaforma di Zoom, per fare un esempio, l’immagine ci offre accesso diretto a piccole e inesplorate porzioni architettoniche. Percepiamo l’interno di una stanza, la struttura di una terrazza o di un paesaggio circostante, delle sezioni, degli spunti tradotti in immagine. A partire da queste informazioni iniziamo a ricostruire nella nostra mente degli ambienti, in cui l’architettura fisica e reale è percepita diversamente, influenzata dal flusso della visione e dalla percezione individuale. Tornano attuali le definizioni di eterotopia riportate da Michel Foucault nelle conferenze radiofoniche del 7 e 21 dicembre 1966 che riferiscono una consapevolezza storico-sociale applicabile ancora oggi, cinquantaquattro anni dopo. La regola generale dell’eterotopia – “giustapporre in un luogo reale più spazi che normalmente sarebbero, dovrebbero essere incompatibili” (Foucault 1966) – può essere riletta non più solo considerando lo spazio architettonico, o meglio urbanistico, ma anche in relazione a quello che ormai è diventato il nostro spazio quotidiano: il digitale. Strettamente collegate al concetto di utopia, come luoghi non esistenti e irraggiungibili, le eterotopie foucaultiane descrivono invece spazi reali, di interazione, in cui rapporti e relazioni vengono neutralizzati o ribaltati. Le eterotopie sono spazi sociali, progettati all’interno del tessuto urbano in cui convivono elementi e situazioni apparentemente inconciliabili. Le considerazioni e gli studi di Foucault sull’esistenza e l’utilizzo di questi spazi ibridi derivano da una ricerca di natura teorica, mentre le riflessioni dell’architetto Rem Koolhaas sono materiali e si riferiscono a specifici progetti architettonici. Si affianca al concetto di eterotopia la definizione concreta e reale di Junkspace (letteralmente “spazio spazzatura”), definito da Koolhaas come il residuo che l’umanità lascia sul pianeta (Koolhaas 2006). Si tratta per l’architettura di una dimensione stravolgente, che si commistiona con le complessità della struttura socio-culturale della contemporaneità. Privo di progettualità, il Junkspace è uno spazio caratterizzato da una pluralità architettonica che mette in discussione i dettami legati alle relazioni sociali appartenenti al luogo. L’incertezza nell’orientamento data dall’intersezione con geografie e temporalità diverse, fino a quel momento indirizzate dall’architettura, conferiscono al Junkspace la capacità di creare relazioni tra gli spazi e al contempo sovvertirle.</v>
       </c>
       <c r="M21" s="15"/>
-      <c r="N21" s="33" t="s">
+      <c r="N21" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="O21" s="32" t="s">
+      <c r="O21" s="33" t="s">
         <v>396</v>
       </c>
       <c r="P21" s="15"/>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="R21" s="32" t="s">
+      <c r="R21" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="S21" s="33" t="s">
+      <c r="S21" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="T21" s="35"/>
-      <c r="U21" s="34"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="35"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="34"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="35"/>
       <c r="Y21" s="15"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="34"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="35"/>
       <c r="AB21" s="15"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="34"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="35"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="34"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="35"/>
       <c r="AH21" s="15"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="34"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="35"/>
       <c r="AK21" s="15"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="34"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="35"/>
       <c r="AN21" s="15"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="31" t="b">
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS21" s="31" t="s">
+      <c r="AS21" s="32" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="22" ht="45.0" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -6073,86 +6350,86 @@
         <f t="shared" si="4"/>
         <v>POSTAMI DA MORTA</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="31" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="34" t="str">
+      <c r="J22" s="32"/>
+      <c r="K22" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Verso la fine degli anni novanta il corpo si immette nel circuito di Internet attraverso un reticolo di immagini mai viste prima, dando inizio al macabro online con i cosiddetti shocking sites. Siti come Rotten.com, Ogrish.com, Bestgore, spalancano la porta dell’inferno umano: i loro contenuti sono raccapriccianti, disturbanti e si configurano come la prima risorsa di foto e video di incidenti, omicidi, esecuzioni e molto altro. Rotten.com, aperto nel 1996 e chiuso nel 2017, è stato definito in un articolo pubblicato da Salon nel 2001 come “il lato più oscuro, nascosto e sordido della natura umana”. Il suo fine era far vivere allo spettatore un’esperienza che non si esaurisse in un’unica e fugace visita ma in un orrore continuo, vissuto molteplici volte in un loop di terribile dipendenza ed eccitazione. Oggi le immagini violente, gore [1] e di tortura sono ormai un semplice materiale di scambio pubblico e informale reperibile dai social network ai thread di Reddit [2] ed è, pressoché impossibile, scindere la dicotomia tra lo sfruttamento di tali contenuti come informazione o come strumento di intrattenimento. Alle volte queste due modalità mediatiche finiscono per coincidere generando una realtà ibrida di perversione, disinformazione e controllo politico. La debolezza del corpo umano, come la ferocia omicida di una coscienza non più umana, diventano statuti di un nuovo linguaggio e finestre di una realtà che è plasmata e si plasma sulla morte. Si registra a tal proposito un aumento di condivisione di materiale violento proprio a partire dagli attacchi terroristici dell’11 settembre [3], periodo in cui la frequenza di immagini di tortura sia in televisione che su Internet ha iniziato a propagarsi considerevolmente, alimentando così uno specifico immaginario collettivo. Nella contemporaneità “oculocentrica”, citando la teoria della filosofa Gillian Rose (Rose 2001), l’immagine acquista un’importanza tale all’interno del panorama politico-culturale che la sua profusione arriva a trasformare il corpo sociale nelle sue forme di relazione e di interazione. La contemporaneità ci propina e presenta un continuum di immagini di tortura prese dal vivo che spesso non testimoniano più l’atto in sé, ma si trasformano in un feticcio di consumo collezionato fra le stratificazioni visuali del quotidiano. Da questa disseminazione online consegue un’incapacità nella comprensione del dolore fisico e della morte e, come nota Alessandro Amaducci, “mancando una cultura della morte, dato che né la religione né la filosofia riescono ad assolvere a questo compito, si cerca l’immagine della morte” (Amaducci 2007, p. 118). Il rischio è di alterare la rappresentazione della tortura a tal punto da favorire un rimosso sociale che contribuisce alla propagazione di una disinformazione generale. Le immagini di sevizie e violenza di vario genere sono così restituite attraverso una tortura arcaica, diversamente ritualizzata attraverso l’influenza della cultura digitale (La Rocca 2009), in cui il corpo viene ripetutamente smembrato: la tortura viene sempre più prodotta per la sua messa online.</v>
       </c>
       <c r="M22" s="15"/>
-      <c r="N22" s="33" t="s">
+      <c r="N22" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="O22" s="32" t="s">
+      <c r="O22" s="33" t="s">
         <v>405</v>
       </c>
       <c r="P22" s="15"/>
-      <c r="Q22" s="43" t="s">
+      <c r="Q22" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="R22" s="32" t="s">
+      <c r="R22" s="33" t="s">
         <v>407</v>
       </c>
       <c r="S22" s="15"/>
-      <c r="T22" s="33" t="s">
+      <c r="T22" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="U22" s="32" t="s">
+      <c r="U22" s="33" t="s">
         <v>409</v>
       </c>
       <c r="V22" s="15"/>
-      <c r="W22" s="33" t="s">
+      <c r="W22" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="X22" s="34"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="34"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="35"/>
       <c r="AB22" s="15"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="34"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="35"/>
       <c r="AE22" s="15"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="34"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="35"/>
       <c r="AH22" s="15"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="34"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="35"/>
       <c r="AK22" s="15"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="34"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="35"/>
       <c r="AN22" s="15"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="31" t="b">
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ22" s="31" t="s">
+      <c r="AQ22" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="AR22" s="31" t="b">
+      <c r="AR22" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS22" s="31" t="s">
+      <c r="AS22" s="32" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="23" ht="87.0" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -6161,19 +6438,19 @@
       <c r="E23" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="31" t="s">
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="34" t="str">
+      <c r="J23" s="32"/>
+      <c r="K23" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Da Michael Jackson a The American Monument: La superstar dei Lakers Kobe Bryant, immortalata in Cina con un monumento davanti alla Guangzhou Academy of Fine Arts, dialoga a distanza con la statua di Shaquille O’Neal in un parco di Pechino. A Zitiste, villaggio a Nord di Belgrado, capeggia la statua alta dieci piedi di Sylvester Stallone nelle vesti di un Rocky, così come succede con Manuela Arcuri a Porto Cesareo. E ancora, statue di celebrità in tutto il mondo: Johnny Depp e Bob Marley in Serbia, Michael Jackson a Londra, John Lennon a Cuba, Bruce Lee in Bosnia, Jean-Claude Van Damme a Bruxelles, Arnold Schwarzenegger in Austria.
 Una galleria di immagini che mi ricorda The American Monument (1976), progetto di Lee Friedlander edito da Eakins Press composto da una serie di 213 fotografie che rappresenta alcune statue in relazione allo spazio pubblico circostante, composto perlopiù da edifici architettonici e mute tracce di vita quotidiana. La relazione con il contesto però è dinamica, il monumento statuario include i suoi immediati dintorni. In alcuni casi il soggetto è visivamente incidentale rispetto alla composizione o addirittura parzialmente oscurato. Si tratta di un’enfasi cruciale perché comunica quanto per Friedlander il vero soggetto non sia la statua, ma la relazione dinamica tra le parti, tra il monumento (nella sua apparente permanenza) e la sua posizione, il suo contesto fisico che cambia continuamente per riflettere i valori della comunità. Penso ad esempio alla rappresentazione di Father Duffy, uno dei soggetti della serie, sovrastato da cartelloni e schermi pubblicitari nell’omonima frenetica piazza newyorkese. 
@@ -6181,67 +6458,67 @@
 Pur in un’inesauribile gamma formale e iconografica, nell’opinione comune il monumento è stato considerato nei secoli simbolo di virtù civica e orgoglio patriottico, così come lo spazio pubblico è stato da sempre battagliato e requisito dalle autorità con il fine ultimo di orientare le narrazioni storiche. Eppure, con l’avvento di Google Maps Street View e l’enorme archivio globale di immagini digitali, l’esperienza di Friedlander non può di certo essere la stessa per il viewer contemporaneo. Se l’umorismo e il pathos della statuaria sono rimasti invariati nella loro operatività, la potenza dell’immagine digitale oggi sembra sfidare la rappresentazione fisica equivalente. Silvia Bottani, parlando di kitsch in un’intervista su “Doppiozero”, sostiene che “la proliferazione di voci, di canali e piattaforme, il costante flusso di immagini e informazioni alimentato da blogger, influencer, autori, semplici utenti, genera un magma indifferenziato in cui l’opera è destinata a transitare brevemente e sparire subito dopo, dimenticata” (Bottani 2020). Ma non è proprio così. La recente polemica sulla statuetta della Madonna del presepe di Pontedera che si affaccia sulla piazza principale del paese toscano e raffigura il volto dell’influencer Chiara Ferragni, dovrebbe esserne una controprova (Ansa 2020). Nell’epoca contemporanea bisognerebbe piuttosto chiedersi quali specchi [1], vivi o morti, nutrono attraverso l’immaginario monumentale una narrazione kitsch e narcisistica di individuo e collettività.</v>
       </c>
       <c r="M23" s="15"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="32" t="s">
+      <c r="N23" s="36"/>
+      <c r="O23" s="33" t="s">
         <v>417</v>
       </c>
       <c r="P23" s="15"/>
-      <c r="Q23" s="33" t="s">
+      <c r="Q23" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="R23" s="32" t="s">
+      <c r="R23" s="33" t="s">
         <v>419</v>
       </c>
       <c r="S23" s="15"/>
-      <c r="T23" s="33" t="s">
+      <c r="T23" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="U23" s="32" t="s">
+      <c r="U23" s="33" t="s">
         <v>421</v>
       </c>
       <c r="V23" s="15"/>
-      <c r="W23" s="33" t="s">
+      <c r="W23" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="X23" s="34"/>
+      <c r="X23" s="35"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="34"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="35"/>
       <c r="AB23" s="15"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="34"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="35"/>
       <c r="AE23" s="15"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="34"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="35"/>
       <c r="AH23" s="15"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="34"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="35"/>
       <c r="AK23" s="15"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="34"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="35"/>
       <c r="AN23" s="15"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="31" t="b">
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ23" s="31" t="s">
+      <c r="AQ23" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="AR23" s="31" t="b">
+      <c r="AR23" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS23" s="31" t="s">
+      <c r="AS23" s="32" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="24" ht="87.0" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -6250,160 +6527,160 @@
       <c r="E24" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="31" t="s">
+      <c r="J24" s="32"/>
+      <c r="K24" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="32" t="s">
         <v>429</v>
       </c>
       <c r="M24" s="15"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="31" t="s">
+      <c r="N24" s="36"/>
+      <c r="O24" s="32" t="s">
         <v>430</v>
       </c>
       <c r="P24" s="15"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="31" t="s">
+      <c r="Q24" s="34"/>
+      <c r="R24" s="32" t="s">
         <v>431</v>
       </c>
       <c r="S24" s="15"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="31" t="s">
+      <c r="T24" s="34"/>
+      <c r="U24" s="32" t="s">
         <v>432</v>
       </c>
       <c r="V24" s="15"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="31" t="s">
+      <c r="W24" s="34"/>
+      <c r="X24" s="32" t="s">
         <v>433</v>
       </c>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="31" t="s">
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="32" t="s">
         <v>434</v>
       </c>
       <c r="AB24" s="15"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="37"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="37"/>
       <c r="AH24" s="15"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="36"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="37"/>
       <c r="AK24" s="15"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="37"/>
       <c r="AN24" s="15"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="31" t="b">
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ24" s="44" t="s">
+      <c r="AQ24" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="AR24" s="31" t="b">
+      <c r="AR24" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS24" s="31" t="s">
+      <c r="AS24" s="32" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="25" ht="87.0" customHeight="1">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="31" t="s">
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="45" t="s">
+      <c r="J25" s="32"/>
+      <c r="K25" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="47" t="s">
         <v>440</v>
       </c>
       <c r="M25" s="15"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="31" t="s">
+      <c r="N25" s="36"/>
+      <c r="O25" s="32" t="s">
         <v>441</v>
       </c>
       <c r="P25" s="15"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="31" t="s">
+      <c r="Q25" s="34"/>
+      <c r="R25" s="32" t="s">
         <v>442</v>
       </c>
       <c r="S25" s="15"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="31" t="s">
+      <c r="T25" s="34"/>
+      <c r="U25" s="32" t="s">
         <v>443</v>
       </c>
       <c r="V25" s="15"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="31"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="32"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="31"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="32"/>
       <c r="AB25" s="15"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="37"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="37"/>
       <c r="AH25" s="15"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="36"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="37"/>
       <c r="AK25" s="15"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="37"/>
       <c r="AN25" s="15"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="31" t="b">
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ25" s="46" t="s">
+      <c r="AQ25" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="AR25" s="31" t="b">
+      <c r="AR25" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS25" s="31" t="s">
+      <c r="AS25" s="32" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="26" ht="87.0" customHeight="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -6412,77 +6689,77 @@
       <c r="E26" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="31" t="s">
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="45" t="s">
+      <c r="J26" s="32"/>
+      <c r="K26" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="47" t="s">
         <v>450</v>
       </c>
       <c r="M26" s="15"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="31" t="s">
+      <c r="N26" s="36"/>
+      <c r="O26" s="32" t="s">
         <v>451</v>
       </c>
       <c r="P26" s="15"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="31" t="s">
+      <c r="Q26" s="34"/>
+      <c r="R26" s="32" t="s">
         <v>452</v>
       </c>
       <c r="S26" s="15"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="31" t="s">
+      <c r="T26" s="34"/>
+      <c r="U26" s="32" t="s">
         <v>453</v>
       </c>
       <c r="V26" s="15"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="31"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="32"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="31"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="32"/>
       <c r="AB26" s="15"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="37"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="37"/>
       <c r="AH26" s="15"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="36"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="37"/>
       <c r="AK26" s="15"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="37"/>
       <c r="AN26" s="15"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="31" t="b">
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ26" s="46" t="s">
+      <c r="AQ26" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="AR26" s="31" t="b">
+      <c r="AR26" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS26" s="31" t="s">
+      <c r="AS26" s="32" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="27" ht="87.0" customHeight="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -6491,627 +6768,627 @@
       <c r="E27" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="31" t="s">
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="45" t="s">
+      <c r="J27" s="32"/>
+      <c r="K27" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="47" t="s">
         <v>460</v>
       </c>
       <c r="M27" s="15"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="31" t="s">
+      <c r="N27" s="36"/>
+      <c r="O27" s="32" t="s">
         <v>461</v>
       </c>
       <c r="P27" s="15"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="31" t="s">
+      <c r="Q27" s="34"/>
+      <c r="R27" s="32" t="s">
         <v>462</v>
       </c>
       <c r="S27" s="15"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="31" t="s">
+      <c r="T27" s="34"/>
+      <c r="U27" s="32" t="s">
         <v>463</v>
       </c>
       <c r="V27" s="15"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="31"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="32"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="31"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="32"/>
       <c r="AB27" s="15"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="37"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="37"/>
       <c r="AH27" s="15"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="36"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="37"/>
       <c r="AK27" s="15"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="37"/>
       <c r="AN27" s="15"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="31" t="b">
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ27" s="46" t="s">
+      <c r="AQ27" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="AR27" s="31" t="b">
+      <c r="AR27" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS27" s="31" t="s">
+      <c r="AS27" s="32" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="28" ht="87.0" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="D28" s="49" t="str">
+      <c r="D28" s="51" t="str">
         <f>'DIRECTORY VARIABLES'!$D$3&amp;"VULVA.webp"</f>
         <v>/ISSUE_THUMBNAILS/VULVA.webp</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="31" t="s">
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="50" t="str">
+      <c r="J28" s="53"/>
+      <c r="K28" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="52" t="str">
         <f t="shared" ref="L28:L33" si="5">F28</f>
         <v>In occasione di ArtVerona 2021 il Forehead Vulva Channeling Research Project, in collaborazione con TBD Ultramagazine, è lieto di presentare il suo primo Temporary Hub. Frutto della ricerca teorica dell'artista S()fia Braga, il progetto porta avanti da anni studi avanzati sulla Forehead Vulva, organo fantasmatico posizionato sulla fronte, che sprigiona il suo potenziale liberatorio qualora si pratichino esercizi di consapevolezza del proprio corpo. Recenti studi hanno infatti dimostrato come questo organo, la cui esistenza è stata scoperta molto di recente dai nostri ricercatori, sia capace di aprire a nuove possibilità di stimolazione originate dalla riscoperta di una clitoride luccicante situata nel cervello di ogni soggetto, indipendentemente dal genere in cui si riconosce, purché si dimostri disponibile ad accogliere l'illuminazione. La Forehead Vulva si rivela solo a coloro che la cercano con attenzione. I benefici derivati dalla canalizzazione della vulva frontale sono innumerevoli, e contano il conseguimento di livelli superiori di consapevolezza, intuizione, fiducia in sé stessi, la possibilità di sviluppare una creatività alternativa e di raggiungere orgasmi potenti ed eiaculazione femminile, conquistando una condizione di sensibilità, rilassamento e assertività altrimenti difficilmente esperibili. Conscio della difficoltà che può rappresentare la ricerca e la soddisfacente stimolazione della propria Forehead Vulva, il team di esperti che troverete a vostra disposizione ha creato speciali filtri facciali di Augmented Reality (AR), per superare eventuali difficoltà di concentrazione e per fornire, se necessario, un aiuto in più a coloro che masticano preferibilmente il linguaggio social. Il virtuale è al servizio del piacere della carne, costituisce una buona scusa per cominciare a toccarsi. La Forehead Vulva sta bene proprio a chiunque, se ti piaci puoi anche scattare un ritratto! Una volta trovata la tua, ti consigliamo però di spegnere il telefono e di prendere un momento per te.</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="M28" s="54" t="s">
         <v>467</v>
       </c>
-      <c r="N28" s="37"/>
-      <c r="O28" s="47" t="s">
+      <c r="N28" s="38"/>
+      <c r="O28" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="P28" s="52" t="s">
+      <c r="P28" s="54" t="s">
         <v>469</v>
       </c>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="52" t="s">
+      <c r="Q28" s="55"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="T28" s="53"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="52" t="s">
+      <c r="T28" s="55"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="54" t="s">
         <v>471</v>
       </c>
-      <c r="W28" s="53"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="52" t="s">
+      <c r="W28" s="55"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="52" t="s">
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="54" t="s">
         <v>473</v>
       </c>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="52" t="s">
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="52" t="s">
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="52"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="47"/>
-      <c r="AS28" s="47"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="54"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="54"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
     </row>
     <row r="29" ht="87.0" customHeight="1">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="51" t="s">
         <v>477</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="56" t="s">
         <v>478</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="31" t="s">
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="56" t="str">
+      <c r="J29" s="59"/>
+      <c r="K29" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Flaminia Veronesi vive e lavora a Milano. Dopo un'anno di Foundation Course alla Central Saint Martins nel 2009 si laurea alla Chelsea University of Arts and Design. Il suo lavoro, dedicato alla rappresentazione del fantastico in un linguaggio visivo contemporaneo, popolato di creature mitologiche e figure oniriche, invita lo spettatore sulla soglia del reale sfidandone i confini e i suoi tabu' e restrizioni. Flaminia ha esposto in group shows a Londra, Milano, Parigi e Zurigo sviluppando un linguaggio visivo eclettico che varia dalle installazioni, alle sculture, a oggetti a disegni e quadri. Le sue ultime personali sono state a Milano, Garden of Fabtasy, per il T Magazine a Villa Necchi Campiglio (2022) Masculin/féminin da Castiglioni (2021), Immediato Giocondo da Fotonico Window (2019), e Tette Fotoniche da Fotonico Window (2018).</v>
       </c>
-      <c r="M29" s="52" t="s">
+      <c r="M29" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="54" t="s">
+      <c r="N29" s="38"/>
+      <c r="O29" s="56" t="s">
         <v>480</v>
       </c>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="54" t="s">
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56" t="s">
         <v>481</v>
       </c>
-      <c r="S29" s="52"/>
-      <c r="T29" s="53" t="s">
+      <c r="S29" s="54"/>
+      <c r="T29" s="55" t="s">
         <v>482</v>
       </c>
-      <c r="U29" s="54" t="s">
+      <c r="U29" s="56" t="s">
         <v>483</v>
       </c>
-      <c r="V29" s="52"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="56" t="s">
+      <c r="V29" s="54"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="52" t="s">
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="52"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="58"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="54"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="58"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="58"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="60"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
     </row>
     <row r="30" ht="87.0" customHeight="1">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="57" t="s">
         <v>486</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="31" t="s">
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="50" t="str">
+      <c r="J30" s="53"/>
+      <c r="K30" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Giulia Crispiani (Ancona, 1986) è una scrittrice e artista visiva che vive e lavora a Roma, dove collabora con Nero Editions. La sua pratica si sviluppa a partire dalla parola scritta, privilegiando interviste, lettere d’amore e manifesti come esiti formali della sua ricerca. Il suo lavoro è stato presentato presso numerose istituzioni e spazi no-profit tra cui: Roma Europa Festival; Center for Book Arts, New York; Almanac Inn, Torino; Centrale Fies, Dro; Short Theatre, Roma; MACRO, Roma; Quadriennale di Roma 2020; Il Colorificio, Milano; FramerFramed, Amsterdam. È autrice dei libri Incontri in luoghi straordinari / Meetings at remarkable places (Nero Editions 2020), What if Every Farewell Would Be Followed by a Love Letter (Union Editions 2020), What if I can’t say goodbye (Union Editions 2021), Petra (Rerun books 2018), e coautrice di غم/Tristezza/Sorrow (Oreri 2021) e Albe e Tramonti di Praiano* (Oreri 2022).</v>
       </c>
-      <c r="M30" s="52" t="s">
+      <c r="M30" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="47" t="s">
+      <c r="N30" s="38"/>
+      <c r="O30" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="47" t="s">
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="49" t="s">
         <v>491</v>
       </c>
-      <c r="S30" s="52"/>
-      <c r="T30" s="53" t="s">
+      <c r="S30" s="54"/>
+      <c r="T30" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="U30" s="47" t="s">
+      <c r="U30" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="V30" s="52"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="50" t="s">
+      <c r="V30" s="54"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="Y30" s="52" t="s">
+      <c r="Y30" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="50"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="50"/>
-      <c r="AN30" s="52"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
     </row>
     <row r="31" ht="87.0" customHeight="1">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="56" t="s">
         <v>496</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="51" t="s">
         <v>497</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="56" t="s">
         <v>498</v>
       </c>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="31" t="s">
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="56" t="str">
+      <c r="J31" s="59"/>
+      <c r="K31" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Michele Rizzo (1984) è un artista italiano che lavora tra l’Italia e l’Olanda dove ha conseguito la sua formazione in coreografia e arti visive. Negli ultimi anni ha prodotto una serie di opere per teatri e spazi espositivi, che si cimentano nella traduzione estetica di elementi tratti dalla cultura del clubbing. Nel 2018 Rizzo presenta HIGHER xtn. (2018), allo Stedelijk Museum di Amsterdam, che ha accolto l’opera nella sua collezione permanente. HIGHER xtn. è stata ampiamente presentato in Europa: Fondazione Sandretto Re Rebaudengo (Torino), Zachęta National Gallery of Art (Varsavia), V-A-C Foundation (Venezia), 3HD Festival (Berlino), Spazio Maiocchi e Miart (Milano), Enter Art Fair (Copenaghen), La Casa Encendida (Madrid). Nel 2020 Rizzo porta avanti il ​​suo linguaggio coreografico e implementa in esso il medium della scultura, producendo Rest (2020), presentato alla Quadriennale d’Arte di Roma a Roma. L’opera fa parte della Fondazione Sandretto Re Rebaudengo di Torino. Nel 2021 Rizzo produce la sua ultima performance Reaching (2021) al KW Institute for Contemporary Art di Berlino in collaborazione con Julia Stoschek Collection. Nello stesso anno esordisce nel mezzo del video, producendo e dirigendo il film Rest (2021). Il film è stato commissionato ed acquisito dallo Stedelijk Museum di Amsterdam. Dal 2020 Rizzo collabora nel mondo della moda, operando come coreografo e movement director in brand come MARNI, Off-White e Magliano. Accanto alla sua carriera di artista Rizzo si impegna regolarmente come docente e tutor presso varie istituti di formazione quali, SNDO School for New Dance Development ad Amsterdam, HEAD University of Art and Design di Ginevra e università di Roma TRE.</v>
       </c>
-      <c r="M31" s="52" t="s">
+      <c r="M31" s="54" t="s">
         <v>499</v>
       </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="54" t="s">
+      <c r="N31" s="38"/>
+      <c r="O31" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="54" t="s">
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="S31" s="52"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="54" t="s">
+      <c r="S31" s="54"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="56" t="s">
         <v>501</v>
       </c>
-      <c r="V31" s="52"/>
-      <c r="W31" s="53" t="s">
+      <c r="V31" s="54"/>
+      <c r="W31" s="55" t="s">
         <v>502</v>
       </c>
-      <c r="X31" s="56" t="s">
+      <c r="X31" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="37" t="s">
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="AA31" s="56" t="s">
+      <c r="AA31" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="37" t="s">
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="52"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="54"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="58"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="58"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
     </row>
     <row r="32" ht="87.0" customHeight="1">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="51" t="s">
         <v>508</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="57" t="s">
         <v>507</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="31" t="s">
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="51"/>
-      <c r="K32" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="50" t="str">
+      <c r="J32" s="53"/>
+      <c r="K32" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Cult of Magic è un collettivo di ricerca che opera in ambito coreutico, musicale e performativo fondato a Milano dal compositore Francesco Sacco, le coreografe e danzatrici Samira Cogliandro e Giada Vailati. Il lavoro del collettivo è nato intorno ad un ambito di ricerca bene identificato, che, oltre che al loro esito, ha caratterizzato le modalità di creazione dei primi lavori della compagnia: ponendosi l’obiettivo di abbattere i confini di genere e cercando di ripristinare il valore del rito e della spiritualità dell’atto artistico sono nate le prime due produzioni del collettivo, il disco “:O” e la performance “Le Serpent Rouge”, entrambe intrise di una forte componente esoterica, simbolo della ricerca dell’uomo contemporaneo e della possibile funzione catartica dell’arte nel mercato odierno.
 Nell’intervista che segue rispondono alle domande, in rappresentanza del collettivo, Francesco Sacco e Giada Vailati.</v>
       </c>
-      <c r="M32" s="52" t="s">
+      <c r="M32" s="54" t="s">
         <v>510</v>
       </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="47" t="s">
+      <c r="N32" s="38"/>
+      <c r="O32" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="47" t="s">
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="S32" s="52"/>
-      <c r="T32" s="53" t="s">
+      <c r="S32" s="54"/>
+      <c r="T32" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="U32" s="47" t="s">
+      <c r="U32" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="V32" s="52"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="50" t="s">
+      <c r="V32" s="54"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="52" t="s">
         <v>515</v>
       </c>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="37" t="s">
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="AA32" s="50" t="s">
+      <c r="AA32" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="AB32" s="52" t="s">
+      <c r="AB32" s="54" t="s">
         <v>518</v>
       </c>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="50"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="50"/>
-      <c r="AN32" s="52"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="47"/>
-      <c r="AR32" s="47"/>
-      <c r="AS32" s="47"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="54"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="54"/>
+      <c r="AL32" s="38"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="38"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
     </row>
     <row r="33" ht="87.0" customHeight="1">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="31" t="s">
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="56" t="str">
+      <c r="J33" s="59"/>
+      <c r="K33" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Barokthegreat è una collaborazione artistica tra Sonia Brunelli e Leila Gharib (aka Sequoyah Tiger). Vivono, lavorano e studiano a Verona. Fin dalla sua formazione nel 2008, Barokthegreat opera nell’ambito delle Performing Arts. Il loro immaginario sorge nel legame intimo e antico tra la danza e la musica, nelle dinamiche di aderenza tra il gesto coreografico, la fisicità del suono e l’architettura dello spazio come dispositivo abitativo. Barokthegreat, in stretta collaborazione con artisti internazionali, inscena spaccati di mondi interiori dove si catapultano figure del passato e del contemporaneo. E’ costante la rappresentazione del conflitto delle emozioni tra luce e ombra, anamorfico e familiare. Mettono piede in teatri, club e luoghi specifici.</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="54" t="s">
         <v>522</v>
       </c>
-      <c r="N33" s="37"/>
-      <c r="O33" s="54" t="s">
+      <c r="N33" s="38"/>
+      <c r="O33" s="56" t="s">
         <v>523</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="54" t="s">
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56" t="s">
         <v>524</v>
       </c>
-      <c r="S33" s="52"/>
-      <c r="T33" s="53" t="s">
+      <c r="S33" s="54"/>
+      <c r="T33" s="55" t="s">
         <v>525</v>
       </c>
-      <c r="U33" s="54" t="s">
+      <c r="U33" s="56" t="s">
         <v>526</v>
       </c>
-      <c r="V33" s="52"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="56" t="s">
+      <c r="V33" s="54"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="Y33" s="52" t="s">
+      <c r="Y33" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="56" t="s">
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="58" t="s">
         <v>529</v>
       </c>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="52"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="52"/>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="54"/>
-      <c r="AQ33" s="54"/>
-      <c r="AR33" s="54"/>
-      <c r="AS33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="38"/>
+      <c r="AJ33" s="58"/>
+      <c r="AK33" s="54"/>
+      <c r="AL33" s="38"/>
+      <c r="AM33" s="58"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="38"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
     </row>
     <row r="34" ht="87.0" customHeight="1">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="60" t="s">
         <v>476</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="55" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="31" t="s">
+      <c r="F34" s="56"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="52"/>
-      <c r="AL34" s="52"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="52"/>
-      <c r="AO34" s="52"/>
-      <c r="AP34" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="54"/>
-      <c r="AR34" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="54"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="58"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="54"/>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="54"/>
+      <c r="AO34" s="54"/>
+      <c r="AP34" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="56"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K34">
@@ -7150,10 +7427,10 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>531</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="61" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7166,12 +7443,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/scripts/xslx/TBD_DB.xlsx
+++ b/src/scripts/xslx/TBD_DB.xlsx
@@ -1928,7 +1928,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">* Slogan inventato nel 2007 per pubblicizzare Ikea Spain, successivamente adattato per il mercato anglofono.
+      <t xml:space="preserve">*Slogan inventato nel 2007 per pubblicizzare Ikea Spain, successivamente adattato per il mercato anglofono.
 *Definizione data da Bruno Latour nel libro </t>
     </r>
     <r>
@@ -1945,7 +1945,7 @@
         <color theme="1"/>
       </rPr>
       <t xml:space="preserve">.
-* Il termine segue la definizione di D. Petrescu nel saggio </t>
+*Il termine segue la definizione di D. Petrescu nel saggio </t>
     </r>
     <r>
       <rPr>
@@ -2280,7 +2280,7 @@
     </r>
     <r>
       <rPr/>
-      <t xml:space="preserve"> reperibile sul sito www.academia.edu (cfr. bibliografia).
+      <t xml:space="preserve"> reperibile sul sito www.academia.edu (cfr. bibliografia). 
 *Parreno, P 2013, in </t>
     </r>
     <r>
@@ -2291,7 +2291,7 @@
     </r>
     <r>
       <rPr/>
-      <t xml:space="preserve"> sul sito di Palais de Tokyo. (https://www.palaisdetokyo.com/en/exhibitions/exhibition-act-creation).
+      <t xml:space="preserve"> sul sito di Palais de Tokyo. (https://www.palaisdetokyo.com/en/exhibitions/exhibition-act-creation).   
 *Per il concetto di 'campo di forza' associato alle teorie mediali si veda: Bechelloni, G 1974, </t>
     </r>
     <r>
@@ -3411,13 +3411,13 @@
     <t>/ARTICLES/ISSUE2/ONLINECULTUREWARS_1/GALLERY_1</t>
   </si>
   <si>
-    <t>[1] Neologismo: termine composto da psycho + lulzy; definizione di lulzy da wikitionary.
-[2] Definizione di doxing_da wikipedia        
-[3] Definizione di DoS da wikipedia.        
-[4] Abbreviazione di operations         
-[5] '4chan summary' PDF anonimo da Are.na.        
-[6] Definizioni di edgy da Urban Dictionary        
-[7] Definizione di clout da Urban Dictionary</t>
+    <t>*Neologismo: termine composto da psycho + lulzy; definizione di lulzy da wikitionary.
+*Definizione di doxing_da wikipedia        
+*Definizione di DoS da wikipedia.        
+*Abbreviazione di operations         
+*'4chan summary' PDF anonimo da Are.na.        
+*Definizioni di edgy da Urban Dictionary        
+*Definizione di clout da Urban Dictionary</t>
   </si>
   <si>
     <r>
@@ -3818,9 +3818,9 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">[1] Wallace, L. 2020, Some video art to enjoy at home while under coronavirus isolation. While museums and galleries are shut, take the time to dive into the rich online world of new media works, in “The Art Newspaper”, 19 marzo 2020
+      <t xml:space="preserve">*Wallace, L. 2020, Some video art to enjoy at home while under coronavirus isolation. While museums and galleries are shut, take the time to dive into the rich online world of new media works, in “The Art Newspaper”, 19 marzo 2020
 [https://www.theartnewspaper.com/feature/video-art-to-enjoy-at-home-while-under-coronavirus-isolation]
-[2] Bakare, L, "'It's great if you're bored with Netflix': video art flourishes in lockdown. From dogs’ plums to death metal shrieks, video artworks are finding a new audience hungry for culture that is accessible, original and bizarre", </t>
+*Bakare, L, "'It's great if you're bored with Netflix': video art flourishes in lockdown. From dogs’ plums to death metal shrieks, video artworks are finding a new audience hungry for culture that is accessible, original and bizarre", </t>
     </r>
     <r>
       <rPr>
@@ -3837,7 +3837,7 @@
       </rPr>
       <t xml:space="preserve">, 4 maggio 2020
 [https://www.theguardian.com/artanddesign/2020/may/04/its-great-if-youre-bored-with-netflix-video-art-flourishes-in-lockdown]
-[3] Redazione e-flux, "Julia Stoschek Collection - Julia Stoschek presents her media art collection online", </t>
+*Redazione e-flux, "Julia Stoschek Collection - Julia Stoschek presents her media art collection online", </t>
     </r>
     <r>
       <rPr>
@@ -3854,7 +3854,7 @@
       </rPr>
       <t xml:space="preserve">, 18 maggio 2020
 [flux.com/announcements/328571/julia-stoschek-presents-her-media-art-collection-online/]
-[4] Balsom, E, "A “small utopia”? Artists’ film and video online", </t>
+*Balsom, E, "A “small utopia”? Artists’ film and video online", </t>
     </r>
     <r>
       <rPr>
@@ -3871,9 +3871,9 @@
       </rPr>
       <t xml:space="preserve">, 8 giugno 2020
 [https://www.art-agenda.com/features/334094/a-small-utopia-artists-film-and-video-online]
-[5] Nei primi anni 2000 Harun Farocki ha  iniziato una ricerca che l’ha condotto a coniare il termine “immagine operativa” in riferimento a quelle immagini capaci di influire e influenzare la realtà, una prova del fatto che quello che si era inaugurato era un nuovo regime visivo.
-[6] Si ritiene necessario in questo punto ricordare che le immagini, come le descrive Louis Marin, in quanto presenza iconica, sono costitutivamente la presenza di un’assenza, l'assenza visibile, una rap-presentazione. 
-[7] Mercuriali, G, "Immagini nel campo espanso: L’an-iconologia secondo Andrea Pinotti", </t>
+*Nei primi anni 2000 Harun Farocki ha  iniziato una ricerca che l’ha condotto a coniare il termine “immagine operativa” in riferimento a quelle immagini capaci di influire e influenzare la realtà, una prova del fatto che quello che si era inaugurato era un nuovo regime visivo.
+*Si ritiene necessario in questo punto ricordare che le immagini, come le descrive Louis Marin, in quanto presenza iconica, sono costitutivamente la presenza di un’assenza, l'assenza visibile, una rap-presentazione. 
+*Mercuriali, G, "Immagini nel campo espanso: L’an-iconologia secondo Andrea Pinotti", </t>
     </r>
     <r>
       <rPr>
@@ -3890,7 +3890,7 @@
       </rPr>
       <t xml:space="preserve">, 3 luglio 2020 
 [http://www.kabulmagazine.com/immagini-campo-espanso-pinotti/]
-[8] Steyerl, H, "In Defense of the Poor Image", </t>
+*Steyerl, H, "In Defense of the Poor Image", </t>
     </r>
     <r>
       <rPr>
@@ -3907,7 +3907,7 @@
       </rPr>
       <t xml:space="preserve">, novembre 2009
 [https://www.e-flux.com/journal/10/61362/in-defense-of-the-poor-image/]
-[9] Ehmann, A, Guerra, C, 2020, </t>
+*Ehmann, A, Guerra, C, 2020, </t>
     </r>
     <r>
       <rPr>
@@ -5826,7 +5826,7 @@
 *Il Cultural Analytics Lab utilizza i metodi del data science per analizzare la cultura globale contemporanea, interrogando in modo critico questi metodi dalla prospettiva delle scienze umane e della teoria dei media.
 *Se ne consiglia la visione a risoluzioni diverse sulla pagina Flickr del progetto https://www.flickr.com/photos/culturevis/15325213308/sizes/l 
 *L’analisi completa dei dati raccolti dal progetto The Exceptional and the Everyday: 144 hours in Kyiv è visibile sulla piattaforma http://www.the-everyday.net/
-*ùCon il progetto How Not to Be Seen: A Fucking Didactic Educational .MOV File (2013) soprattutto</t>
+*Con il progetto How Not to Be Seen: A Fucking Didactic Educational .MOV File (2013) soprattutto</t>
   </si>
   <si>
     <r>
